--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2173581123187773</v>
+        <v>0.2173581123191894</v>
       </c>
       <c r="D2">
-        <v>0.530311070892779</v>
+        <v>0.5303110708926084</v>
       </c>
       <c r="E2">
-        <v>3.919119240277226</v>
+        <v>3.919119240277254</v>
       </c>
       <c r="F2">
-        <v>7.911348091151154</v>
+        <v>7.911348091151041</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.064903599968986</v>
+        <v>6.064903599968929</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>2.824982873234617</v>
       </c>
       <c r="L2">
-        <v>47.02208428711037</v>
+        <v>47.02208428711049</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.159829897909205</v>
+        <v>0.1598298979086081</v>
       </c>
       <c r="D3">
-        <v>0.2547341327355355</v>
+        <v>0.254734132735436</v>
       </c>
       <c r="E3">
-        <v>2.873728477460389</v>
+        <v>2.873728477460418</v>
       </c>
       <c r="F3">
-        <v>4.670268538478894</v>
+        <v>4.670268538478808</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.45372442292593</v>
+        <v>3.453724422925859</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.028556213354776</v>
+        <v>2.02855621335479</v>
       </c>
       <c r="L3">
-        <v>34.98552602854153</v>
+        <v>34.98552602854141</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1363070498108669</v>
+        <v>0.1363070498109806</v>
       </c>
       <c r="D4">
-        <v>0.1753221658882893</v>
+        <v>0.175322165888204</v>
       </c>
       <c r="E4">
-        <v>2.462806457206796</v>
+        <v>2.46280645720681</v>
       </c>
       <c r="F4">
-        <v>3.623212426400229</v>
+        <v>3.623212426400116</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.630719943749909</v>
+        <v>2.63071994374981</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.725508069540822</v>
+        <v>1.725508069540794</v>
       </c>
       <c r="L4">
-        <v>30.11398985523164</v>
+        <v>30.11398985523141</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1278219261789815</v>
+        <v>0.1278219261790809</v>
       </c>
       <c r="D5">
-        <v>0.1506441254329545</v>
+        <v>0.1506441254330682</v>
       </c>
       <c r="E5">
-        <v>2.315425498100751</v>
+        <v>2.31542549810078</v>
       </c>
       <c r="F5">
-        <v>3.279974787473265</v>
+        <v>3.279974787473236</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.364002841313621</v>
+        <v>2.364002841313606</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.618045990049424</v>
+        <v>1.618045990049467</v>
       </c>
       <c r="L5">
-        <v>28.35233804279625</v>
+        <v>28.35233804279642</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1264611842522356</v>
+        <v>0.1264611842519514</v>
       </c>
       <c r="D6">
-        <v>0.1468737132016074</v>
+        <v>0.1468737132016287</v>
       </c>
       <c r="E6">
-        <v>2.291811062104799</v>
+        <v>2.291811062104784</v>
       </c>
       <c r="F6">
         <v>3.226580900341219</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.322671673338178</v>
+        <v>2.322671673338192</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>1.60088550099924</v>
       </c>
       <c r="L6">
-        <v>28.0694317653477</v>
+        <v>28.06943176534764</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1361890698443489</v>
+        <v>0.1361890698439367</v>
       </c>
       <c r="D7">
-        <v>0.1749650851623556</v>
+        <v>0.1749650851622562</v>
       </c>
       <c r="E7">
         <v>2.460755263355736</v>
       </c>
       <c r="F7">
-        <v>3.61831748523754</v>
+        <v>3.618317485237569</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.62690439396043</v>
+        <v>2.626904393960459</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.724008129540607</v>
+        <v>1.724008129540579</v>
       </c>
       <c r="L7">
-        <v>30.08952054325539</v>
+        <v>30.08952054325545</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D8">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E8">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F8">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L8">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D9">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E9">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F9">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L9">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D10">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E10">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F10">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L10">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D11">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E11">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F11">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L11">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D12">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E12">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F12">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L12">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D13">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E13">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F13">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L13">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D14">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E14">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F14">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L14">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D15">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E15">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F15">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L15">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D16">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E16">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F16">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L16">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D17">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E17">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F17">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L17">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D18">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E18">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F18">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L18">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D19">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E19">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F19">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L19">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D20">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E20">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F20">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L20">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D21">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E21">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F21">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L21">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D22">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E22">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F22">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L22">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D23">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E23">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F23">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L23">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D24">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E24">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F24">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L24">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1923711942623072</v>
+        <v>0.1923711942627051</v>
       </c>
       <c r="D25">
-        <v>0.3944661555704414</v>
+        <v>0.3944661555705267</v>
       </c>
       <c r="E25">
-        <v>3.454455704886328</v>
+        <v>3.4544557048863</v>
       </c>
       <c r="F25">
-        <v>6.371212904963159</v>
+        <v>6.371212904963073</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.813999206282446</v>
+        <v>4.813999206282347</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.466159494964074</v>
+        <v>2.46615949496406</v>
       </c>
       <c r="L25">
-        <v>41.74682207481987</v>
+        <v>41.74682207481948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2173581123191894</v>
+        <v>0.2173581123187773</v>
       </c>
       <c r="D2">
-        <v>0.5303110708926084</v>
+        <v>0.530311070892779</v>
       </c>
       <c r="E2">
-        <v>3.919119240277254</v>
+        <v>3.919119240277226</v>
       </c>
       <c r="F2">
-        <v>7.911348091151041</v>
+        <v>7.911348091151154</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.064903599968929</v>
+        <v>6.064903599968986</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>2.824982873234617</v>
       </c>
       <c r="L2">
-        <v>47.02208428711049</v>
+        <v>47.02208428711037</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1598298979086081</v>
+        <v>0.159829897909205</v>
       </c>
       <c r="D3">
-        <v>0.254734132735436</v>
+        <v>0.2547341327355355</v>
       </c>
       <c r="E3">
-        <v>2.873728477460418</v>
+        <v>2.873728477460389</v>
       </c>
       <c r="F3">
-        <v>4.670268538478808</v>
+        <v>4.670268538478894</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.453724422925859</v>
+        <v>3.45372442292593</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.02855621335479</v>
+        <v>2.028556213354776</v>
       </c>
       <c r="L3">
-        <v>34.98552602854141</v>
+        <v>34.98552602854153</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1363070498109806</v>
+        <v>0.1363070498108669</v>
       </c>
       <c r="D4">
-        <v>0.175322165888204</v>
+        <v>0.1753221658882893</v>
       </c>
       <c r="E4">
-        <v>2.46280645720681</v>
+        <v>2.462806457206796</v>
       </c>
       <c r="F4">
-        <v>3.623212426400116</v>
+        <v>3.623212426400229</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.63071994374981</v>
+        <v>2.630719943749909</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.725508069540794</v>
+        <v>1.725508069540822</v>
       </c>
       <c r="L4">
-        <v>30.11398985523141</v>
+        <v>30.11398985523164</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1278219261790809</v>
+        <v>0.1278219261789815</v>
       </c>
       <c r="D5">
-        <v>0.1506441254330682</v>
+        <v>0.1506441254329545</v>
       </c>
       <c r="E5">
-        <v>2.31542549810078</v>
+        <v>2.315425498100751</v>
       </c>
       <c r="F5">
-        <v>3.279974787473236</v>
+        <v>3.279974787473265</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.364002841313606</v>
+        <v>2.364002841313621</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.618045990049467</v>
+        <v>1.618045990049424</v>
       </c>
       <c r="L5">
-        <v>28.35233804279642</v>
+        <v>28.35233804279625</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1264611842519514</v>
+        <v>0.1264611842522356</v>
       </c>
       <c r="D6">
-        <v>0.1468737132016287</v>
+        <v>0.1468737132016074</v>
       </c>
       <c r="E6">
-        <v>2.291811062104784</v>
+        <v>2.291811062104799</v>
       </c>
       <c r="F6">
         <v>3.226580900341219</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.322671673338192</v>
+        <v>2.322671673338178</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>1.60088550099924</v>
       </c>
       <c r="L6">
-        <v>28.06943176534764</v>
+        <v>28.0694317653477</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1361890698439367</v>
+        <v>0.1361890698443489</v>
       </c>
       <c r="D7">
-        <v>0.1749650851622562</v>
+        <v>0.1749650851623556</v>
       </c>
       <c r="E7">
         <v>2.460755263355736</v>
       </c>
       <c r="F7">
-        <v>3.618317485237569</v>
+        <v>3.61831748523754</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.626904393960459</v>
+        <v>2.62690439396043</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.724008129540579</v>
+        <v>1.724008129540607</v>
       </c>
       <c r="L7">
-        <v>30.08952054325545</v>
+        <v>30.08952054325539</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D8">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E8">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F8">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L8">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D9">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E9">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F9">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L9">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D10">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E10">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F10">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L10">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D11">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E11">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F11">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L11">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D12">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E12">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F12">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L12">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D13">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E13">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F13">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L13">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D14">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E14">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F14">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L14">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D15">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E15">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F15">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L15">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D16">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E16">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F16">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L16">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D17">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E17">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F17">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L17">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D18">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E18">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F18">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L18">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D19">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E19">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F19">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L19">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D20">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E20">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F20">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L20">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D21">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E21">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F21">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L21">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D22">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E22">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F22">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L22">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D23">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E23">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F23">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L23">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D24">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E24">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F24">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L24">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1923711942627051</v>
+        <v>0.1923711942623072</v>
       </c>
       <c r="D25">
-        <v>0.3944661555705267</v>
+        <v>0.3944661555704414</v>
       </c>
       <c r="E25">
-        <v>3.4544557048863</v>
+        <v>3.454455704886328</v>
       </c>
       <c r="F25">
-        <v>6.371212904963073</v>
+        <v>6.371212904963159</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.813999206282347</v>
+        <v>4.813999206282446</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.46615949496406</v>
+        <v>2.466159494964074</v>
       </c>
       <c r="L25">
-        <v>41.74682207481948</v>
+        <v>41.74682207481987</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2173581123187773</v>
+        <v>0.2103105999721038</v>
       </c>
       <c r="D2">
-        <v>0.530311070892779</v>
+        <v>0.4885978606945542</v>
       </c>
       <c r="E2">
-        <v>3.919119240277226</v>
+        <v>3.857977725918673</v>
       </c>
       <c r="F2">
-        <v>7.911348091151154</v>
+        <v>7.515427725690415</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005050540299299372</v>
       </c>
       <c r="H2">
-        <v>6.064903599968986</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5.740031017866514</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.824982873234617</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>47.02208428711037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.772922662833892</v>
+      </c>
+      <c r="M2">
+        <v>46.23532156675657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.159829897909205</v>
+        <v>0.1559521195197959</v>
       </c>
       <c r="D3">
-        <v>0.2547341327355355</v>
+        <v>0.2362502798692887</v>
       </c>
       <c r="E3">
-        <v>2.873728477460389</v>
+        <v>2.85638810384485</v>
       </c>
       <c r="F3">
-        <v>4.670268538478894</v>
+        <v>4.50558684726434</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005805611061546825</v>
       </c>
       <c r="H3">
-        <v>3.45372442292593</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.320000584118262</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.028556213354776</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>34.98552602854153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.012854763936119</v>
+      </c>
+      <c r="M3">
+        <v>34.7093856478283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1363070498108669</v>
+        <v>0.1331799076016296</v>
       </c>
       <c r="D4">
-        <v>0.1753221658882893</v>
+        <v>0.1614391404463689</v>
       </c>
       <c r="E4">
-        <v>2.462806457206796</v>
+        <v>2.451224838776469</v>
       </c>
       <c r="F4">
-        <v>3.623212426400229</v>
+        <v>3.503625979733442</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006128778911199673</v>
       </c>
       <c r="H4">
-        <v>2.630719943749909</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.533880057955969</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.725508069540822</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>30.11398985523164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.714757154755645</v>
+      </c>
+      <c r="M4">
+        <v>29.91719731063256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1278219261789815</v>
+        <v>0.1249414182714759</v>
       </c>
       <c r="D5">
-        <v>0.1506441254329545</v>
+        <v>0.1381935960324867</v>
       </c>
       <c r="E5">
-        <v>2.315425498100751</v>
+        <v>2.305350978800291</v>
       </c>
       <c r="F5">
-        <v>3.279974787473265</v>
+        <v>3.1743164362546</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006247933938822618</v>
       </c>
       <c r="H5">
-        <v>2.364002841313621</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.278515620995975</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.618045990049424</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>28.35233804279625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.608615682275186</v>
+      </c>
+      <c r="M5">
+        <v>28.17798235089595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1264611842522356</v>
+        <v>0.1236193940753196</v>
       </c>
       <c r="D6">
-        <v>0.1468737132016074</v>
+        <v>0.1346447347315518</v>
       </c>
       <c r="E6">
-        <v>2.291811062104799</v>
+        <v>2.281957146764526</v>
       </c>
       <c r="F6">
-        <v>3.226580900341219</v>
+        <v>3.123070993525133</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006267191764663732</v>
       </c>
       <c r="H6">
-        <v>2.322671673338178</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.238933918246232</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.60088550099924</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>28.0694317653477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.591649800486678</v>
+      </c>
+      <c r="M6">
+        <v>27.8984449160593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1361890698443489</v>
+        <v>0.13306542480953</v>
       </c>
       <c r="D7">
-        <v>0.1749650851623556</v>
+        <v>0.1611026337320709</v>
       </c>
       <c r="E7">
-        <v>2.460755263355736</v>
+        <v>2.44919627610183</v>
       </c>
       <c r="F7">
-        <v>3.61831748523754</v>
+        <v>3.498931510112328</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006130425211976935</v>
       </c>
       <c r="H7">
-        <v>2.62690439396043</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.53022804643993</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.724008129540607</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>30.08952054325539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.713276942799368</v>
+      </c>
+      <c r="M7">
+        <v>29.89305818894144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D8">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E8">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F8">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H8">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M8">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D9">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E9">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F9">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H9">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M9">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D10">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E10">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F10">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H10">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M10">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D11">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E11">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F11">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H11">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M11">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D12">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E12">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F12">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H12">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M12">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D13">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E13">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F13">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H13">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M13">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D14">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E14">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F14">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H14">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M14">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D15">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E15">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F15">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H15">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M15">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D16">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E16">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F16">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H16">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M16">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D17">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E17">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F17">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H17">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M17">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D18">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E18">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F18">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H18">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M18">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D19">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E19">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F19">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H19">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M19">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D20">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E20">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F20">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H20">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M20">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D21">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E21">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F21">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H21">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M21">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D22">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E22">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F22">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H22">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M22">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D23">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E23">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F23">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H23">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M23">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D24">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E24">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F24">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H24">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>41.74682207481987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M24">
+        <v>41.28076177487566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1923711942623072</v>
+        <v>0.1871210866526098</v>
       </c>
       <c r="D25">
-        <v>0.3944661555704414</v>
+        <v>0.3665945805967183</v>
       </c>
       <c r="E25">
-        <v>3.454455704886328</v>
+        <v>3.421684406159457</v>
       </c>
       <c r="F25">
-        <v>6.371212904963159</v>
+        <v>6.113468643413285</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005372023934953995</v>
       </c>
       <c r="H25">
-        <v>4.813999206282446</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.603650615959666</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.466159494964074</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>41.74682207481987</v>
+        <v>2.437515395042183</v>
+      </c>
+      <c r="M25">
+        <v>41.28076177487566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2103105999721038</v>
+        <v>0.1775558830977531</v>
       </c>
       <c r="D2">
-        <v>0.4885978606945542</v>
+        <v>0.2647520476373018</v>
       </c>
       <c r="E2">
-        <v>3.857977725918673</v>
+        <v>1.772413409995792</v>
       </c>
       <c r="F2">
-        <v>7.515427725690415</v>
+        <v>6.319077810529933</v>
       </c>
       <c r="G2">
-        <v>0.0005050540299299372</v>
+        <v>0.0006459972925107642</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.740031017866514</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.088221276298384</v>
       </c>
       <c r="L2">
-        <v>2.772922662833892</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>46.23532156675657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.399392871218311</v>
+      </c>
+      <c r="O2">
+        <v>5.471392878106798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1559521195197959</v>
+        <v>0.1488196484944098</v>
       </c>
       <c r="D3">
-        <v>0.2362502798692887</v>
+        <v>0.2161156596636715</v>
       </c>
       <c r="E3">
-        <v>2.85638810384485</v>
+        <v>1.465160193897987</v>
       </c>
       <c r="F3">
-        <v>4.50558684726434</v>
+        <v>5.26039306631813</v>
       </c>
       <c r="G3">
-        <v>0.0005805611061546825</v>
+        <v>0.0006688376753281295</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.320000584118262</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.702327428689046</v>
       </c>
       <c r="L3">
-        <v>2.012854763936119</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>34.7093856478283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.296953455491348</v>
+      </c>
+      <c r="O3">
+        <v>4.548891727963195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1331799076016296</v>
+        <v>0.1322734642393328</v>
       </c>
       <c r="D4">
-        <v>0.1614391404463689</v>
+        <v>0.189317502108338</v>
       </c>
       <c r="E4">
-        <v>2.451224838776469</v>
+        <v>1.291925889757906</v>
       </c>
       <c r="F4">
-        <v>3.503625979733442</v>
+        <v>4.662586290055941</v>
       </c>
       <c r="G4">
-        <v>0.0006128778911199673</v>
+        <v>0.0006825873033148216</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.533880057955969</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.891591338243444</v>
       </c>
       <c r="L4">
-        <v>1.714757154755645</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>29.91719731063256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.235526888742328</v>
+      </c>
+      <c r="O4">
+        <v>4.028881664932328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1249414182714759</v>
+        <v>0.1257439260485995</v>
       </c>
       <c r="D5">
-        <v>0.1381935960324867</v>
+        <v>0.1789894247283002</v>
       </c>
       <c r="E5">
-        <v>2.305350978800291</v>
+        <v>1.2242532886454</v>
       </c>
       <c r="F5">
-        <v>3.1743164362546</v>
+        <v>4.429160918277972</v>
       </c>
       <c r="G5">
-        <v>0.0006247933938822618</v>
+        <v>0.0006881569317221133</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.278515620995975</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.568901864507694</v>
       </c>
       <c r="L5">
-        <v>1.608615682275186</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>28.17798235089595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.210829665874257</v>
+      </c>
+      <c r="O5">
+        <v>3.826017952752437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1236193940753196</v>
+        <v>0.1246710461879985</v>
       </c>
       <c r="D6">
-        <v>0.1346447347315518</v>
+        <v>0.1773059563294623</v>
       </c>
       <c r="E6">
-        <v>2.281957146764526</v>
+        <v>1.213170066857344</v>
       </c>
       <c r="F6">
-        <v>3.123070993525133</v>
+        <v>4.390944670263025</v>
       </c>
       <c r="G6">
-        <v>0.0006267191764663732</v>
+        <v>0.0006890806025130239</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.238933918246232</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.515725650103633</v>
       </c>
       <c r="L6">
-        <v>1.591649800486678</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>27.8984449160593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.206747980542502</v>
+      </c>
+      <c r="O6">
+        <v>3.792815370102119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.13306542480953</v>
+        <v>0.1321846125185004</v>
       </c>
       <c r="D7">
-        <v>0.1611026337320709</v>
+        <v>0.1891760144326042</v>
       </c>
       <c r="E7">
-        <v>2.44919627610183</v>
+        <v>1.291002460653203</v>
       </c>
       <c r="F7">
-        <v>3.498931510112328</v>
+        <v>4.659400305900647</v>
       </c>
       <c r="G7">
-        <v>0.0006130425211976935</v>
+        <v>0.000682662512791586</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.53022804643993</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.887211006195315</v>
       </c>
       <c r="L7">
-        <v>1.713276942799368</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>29.89305818894144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.23519250168151</v>
+      </c>
+      <c r="O7">
+        <v>4.026112102190297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1871210866526098</v>
+        <v>0.1673757768356836</v>
       </c>
       <c r="D8">
-        <v>0.3665945805967183</v>
+        <v>0.24722033995495</v>
       </c>
       <c r="E8">
-        <v>3.421684406159457</v>
+        <v>1.66259235236079</v>
       </c>
       <c r="F8">
-        <v>6.113468643413285</v>
+        <v>5.941136212241787</v>
       </c>
       <c r="G8">
-        <v>0.0005372023934953995</v>
+        <v>0.0006539545902110552</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.600322466071731</v>
       </c>
       <c r="L8">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.363743233522825</v>
+      </c>
+      <c r="O8">
+        <v>5.141840607182758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1871210866526098</v>
+        <v>0.2494258974446524</v>
       </c>
       <c r="D9">
-        <v>0.3665945805967183</v>
+        <v>0.3980049424350653</v>
       </c>
       <c r="E9">
-        <v>3.421684406159457</v>
+        <v>2.583144638399318</v>
       </c>
       <c r="F9">
-        <v>6.113468643413285</v>
+        <v>9.074055316384573</v>
       </c>
       <c r="G9">
-        <v>0.0005372023934953995</v>
+        <v>0.000592993711602206</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.44745039117677</v>
       </c>
       <c r="L9">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.629450613790993</v>
+      </c>
+      <c r="O9">
+        <v>7.880893214953574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1871210866526098</v>
+        <v>0.3293048661958693</v>
       </c>
       <c r="D10">
-        <v>0.3665945805967183</v>
+        <v>0.5669960412106718</v>
       </c>
       <c r="E10">
-        <v>3.421684406159457</v>
+        <v>3.581120619554923</v>
       </c>
       <c r="F10">
-        <v>6.113468643413285</v>
+        <v>12.31540995633608</v>
       </c>
       <c r="G10">
-        <v>0.0005372023934953995</v>
+        <v>0.0005384708453852754</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.03514161329858</v>
       </c>
       <c r="L10">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.836321674985129</v>
+      </c>
+      <c r="O10">
+        <v>10.73172107255579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1871210866526098</v>
+        <v>0.3777461155575565</v>
       </c>
       <c r="D11">
-        <v>0.3665945805967183</v>
+        <v>0.6820973345700168</v>
       </c>
       <c r="E11">
-        <v>3.421684406159457</v>
+        <v>4.260827852324837</v>
       </c>
       <c r="F11">
-        <v>6.113468643413285</v>
+        <v>14.38261326896523</v>
       </c>
       <c r="G11">
-        <v>0.0005372023934953995</v>
+        <v>0.0005067078105754833</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.15452508192851</v>
       </c>
       <c r="L11">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.933812850746506</v>
+      </c>
+      <c r="O11">
+        <v>12.55921288827469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1871210866526098</v>
+        <v>0.4002713114354606</v>
       </c>
       <c r="D12">
-        <v>0.3665945805967183</v>
+        <v>0.7395461336785161</v>
       </c>
       <c r="E12">
-        <v>3.421684406159457</v>
+        <v>4.604430758844927</v>
       </c>
       <c r="F12">
-        <v>6.113468643413285</v>
+        <v>15.37426627699455</v>
       </c>
       <c r="G12">
-        <v>0.0005372023934953995</v>
+        <v>0.0004921134886295015</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.12989907498508</v>
       </c>
       <c r="L12">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.971198609400005</v>
+      </c>
+      <c r="O12">
+        <v>13.43867717431206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1871210866526098</v>
+        <v>0.3951286001928338</v>
       </c>
       <c r="D13">
-        <v>0.3665945805967183</v>
+        <v>0.7261857462037824</v>
       </c>
       <c r="E13">
-        <v>3.421684406159457</v>
+        <v>4.524136287847156</v>
       </c>
       <c r="F13">
-        <v>6.113468643413285</v>
+        <v>15.14599705443615</v>
       </c>
       <c r="G13">
-        <v>0.0005372023934953995</v>
+        <v>0.0004954399133456328</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.90764499642742</v>
       </c>
       <c r="L13">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.963132252361248</v>
+      </c>
+      <c r="O13">
+        <v>13.23606315453469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1871210866526098</v>
+        <v>0.379482155610205</v>
       </c>
       <c r="D14">
-        <v>0.3665945805967183</v>
+        <v>0.6864290897869694</v>
       </c>
       <c r="E14">
-        <v>3.421684406159457</v>
+        <v>4.286598471772535</v>
       </c>
       <c r="F14">
-        <v>6.113468643413285</v>
+        <v>14.45830644567599</v>
       </c>
       <c r="G14">
-        <v>0.0005372023934953995</v>
+        <v>0.0005055803195847827</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.22988722651982</v>
       </c>
       <c r="L14">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.936880946212852</v>
+      </c>
+      <c r="O14">
+        <v>12.62627614186769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1871210866526098</v>
+        <v>0.370595558254152</v>
       </c>
       <c r="D15">
-        <v>0.3665945805967183</v>
+        <v>0.6644156540103978</v>
       </c>
       <c r="E15">
-        <v>3.421684406159457</v>
+        <v>4.155828169017525</v>
       </c>
       <c r="F15">
-        <v>6.113468643413285</v>
+        <v>14.07207751720063</v>
       </c>
       <c r="G15">
-        <v>0.0005372023934953995</v>
+        <v>0.0005113579487595912</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.84373875669542</v>
       </c>
       <c r="L15">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.920855290979205</v>
+      </c>
+      <c r="O15">
+        <v>12.2841940886054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1871210866526098</v>
+        <v>0.3265100493879629</v>
       </c>
       <c r="D16">
-        <v>0.3665945805967183</v>
+        <v>0.5606708716624951</v>
       </c>
       <c r="E16">
-        <v>3.421684406159457</v>
+        <v>3.543927449553578</v>
       </c>
       <c r="F16">
-        <v>6.113468643413285</v>
+        <v>12.19863046192634</v>
       </c>
       <c r="G16">
-        <v>0.0005372023934953995</v>
+        <v>0.0005403261947158583</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.91174494863151</v>
       </c>
       <c r="L16">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.830022765658896</v>
+      </c>
+      <c r="O16">
+        <v>10.62870739715783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1871210866526098</v>
+        <v>0.3033856807459756</v>
       </c>
       <c r="D17">
-        <v>0.3665945805967183</v>
+        <v>0.5095423604298617</v>
       </c>
       <c r="E17">
-        <v>3.421684406159457</v>
+        <v>3.24325143072069</v>
       </c>
       <c r="F17">
-        <v>6.113468643413285</v>
+        <v>11.24209610727891</v>
       </c>
       <c r="G17">
-        <v>0.0005372023934953995</v>
+        <v>0.0005558012259116182</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.885315880826</v>
       </c>
       <c r="L17">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.775214392087776</v>
+      </c>
+      <c r="O17">
+        <v>9.78579712808525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1871210866526098</v>
+        <v>0.2910321798334365</v>
       </c>
       <c r="D18">
-        <v>0.3665945805967183</v>
+        <v>0.4830766323004383</v>
       </c>
       <c r="E18">
-        <v>3.421684406159457</v>
+        <v>3.087371439285576</v>
       </c>
       <c r="F18">
-        <v>6.113468643413285</v>
+        <v>10.73799501701967</v>
       </c>
       <c r="G18">
-        <v>0.0005372023934953995</v>
+        <v>0.0005641697152101168</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.33273921685989</v>
       </c>
       <c r="L18">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.744009442732676</v>
+      </c>
+      <c r="O18">
+        <v>9.342191580309446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1871210866526098</v>
+        <v>0.286983279467961</v>
       </c>
       <c r="D19">
-        <v>0.3665945805967183</v>
+        <v>0.474526222596154</v>
       </c>
       <c r="E19">
-        <v>3.421684406159457</v>
+        <v>3.036942068252571</v>
       </c>
       <c r="F19">
-        <v>6.113468643413285</v>
+        <v>10.5737935905552</v>
       </c>
       <c r="G19">
-        <v>0.0005372023934953995</v>
+        <v>0.0005669296288853582</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.15094931687165</v>
       </c>
       <c r="L19">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.73349649651999</v>
+      </c>
+      <c r="O19">
+        <v>9.197785991953026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1871210866526098</v>
+        <v>0.305741704150833</v>
       </c>
       <c r="D20">
-        <v>0.3665945805967183</v>
+        <v>0.5146555359840477</v>
       </c>
       <c r="E20">
-        <v>3.421684406159457</v>
+        <v>3.2733389814844</v>
       </c>
       <c r="F20">
-        <v>6.113468643413285</v>
+        <v>11.33877463132379</v>
       </c>
       <c r="G20">
-        <v>0.0005372023934953995</v>
+        <v>0.0005542137038480082</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.99035575970822</v>
       </c>
       <c r="L20">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.78101524333141</v>
+      </c>
+      <c r="O20">
+        <v>9.870921741861707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1871210866526098</v>
+        <v>0.3839182701616153</v>
       </c>
       <c r="D21">
-        <v>0.3665945805967183</v>
+        <v>0.6975686953003901</v>
       </c>
       <c r="E21">
-        <v>3.421684406159457</v>
+        <v>4.352963661141047</v>
       </c>
       <c r="F21">
-        <v>6.113468643413285</v>
+        <v>14.65226875725682</v>
       </c>
       <c r="G21">
-        <v>0.0005372023934953995</v>
+        <v>0.0005027016132811582</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.42230613596752</v>
       </c>
       <c r="L21">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.944581260508357</v>
+      </c>
+      <c r="O21">
+        <v>12.79817389718613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1871210866526098</v>
+        <v>0.4739703599684475</v>
       </c>
       <c r="D22">
-        <v>0.3665945805967183</v>
+        <v>0.9508281579490472</v>
       </c>
       <c r="E22">
-        <v>3.421684406159457</v>
+        <v>5.926112311383548</v>
       </c>
       <c r="F22">
-        <v>6.113468643413285</v>
+        <v>18.7943825233599</v>
       </c>
       <c r="G22">
-        <v>0.0005372023934953995</v>
+        <v>0.000444259048798125</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.30595314543817</v>
       </c>
       <c r="L22">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.052612211584375</v>
+      </c>
+      <c r="O22">
+        <v>16.48805414710384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1871210866526098</v>
+        <v>0.416969680248485</v>
       </c>
       <c r="D23">
-        <v>0.3665945805967183</v>
+        <v>0.7840029953278531</v>
       </c>
       <c r="E23">
-        <v>3.421684406159457</v>
+        <v>4.873680306215789</v>
       </c>
       <c r="F23">
-        <v>6.113468643413285</v>
+        <v>16.12361094883565</v>
       </c>
       <c r="G23">
-        <v>0.0005372023934953995</v>
+        <v>0.0004813236112541196</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.85019152390942</v>
       </c>
       <c r="L23">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.995400186600619</v>
+      </c>
+      <c r="O23">
+        <v>14.10454432270399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1871210866526098</v>
+        <v>0.3046737180911236</v>
       </c>
       <c r="D24">
-        <v>0.3665945805967183</v>
+        <v>0.5123350906365118</v>
       </c>
       <c r="E24">
-        <v>3.421684406159457</v>
+        <v>3.259685639298979</v>
       </c>
       <c r="F24">
-        <v>6.113468643413285</v>
+        <v>11.29492869774975</v>
       </c>
       <c r="G24">
-        <v>0.0005372023934953995</v>
+        <v>0.000554933003281831</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.94275460680643</v>
       </c>
       <c r="L24">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>41.28076177487566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.77839173310079</v>
+      </c>
+      <c r="O24">
+        <v>9.832313843655527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1871210866526098</v>
+        <v>0.2250428358724861</v>
       </c>
       <c r="D25">
-        <v>0.3665945805967183</v>
+        <v>0.3509105386467866</v>
       </c>
       <c r="E25">
-        <v>3.421684406159457</v>
+        <v>2.30048852476277</v>
       </c>
       <c r="F25">
-        <v>6.113468643413285</v>
+        <v>8.122539574317443</v>
       </c>
       <c r="G25">
-        <v>0.0005372023934953995</v>
+        <v>0.0006104430900967852</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.603650615959666</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.3234542934415</v>
       </c>
       <c r="L25">
-        <v>2.437515395042183</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>41.28076177487566</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.555803728788447</v>
+      </c>
+      <c r="O25">
+        <v>7.047283398649768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1775558830977531</v>
+        <v>0.07590950328582835</v>
       </c>
       <c r="D2">
-        <v>0.2647520476373018</v>
+        <v>0.07319046515206651</v>
       </c>
       <c r="E2">
-        <v>1.772413409995792</v>
+        <v>1.432165129480126</v>
       </c>
       <c r="F2">
-        <v>6.319077810529933</v>
+        <v>0.2431007275637143</v>
       </c>
       <c r="G2">
-        <v>0.0006459972925107642</v>
+        <v>0.1457428065884585</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1271644532983487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1640134448898607</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.088221276298384</v>
+        <v>5.444210613113739</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.399392871218311</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.471392878106798</v>
+        <v>0.5270805332110058</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1488196484944098</v>
+        <v>0.06608789770959334</v>
       </c>
       <c r="D3">
-        <v>0.2161156596636715</v>
+        <v>0.06410565809881064</v>
       </c>
       <c r="E3">
-        <v>1.465160193897987</v>
+        <v>1.230138883121882</v>
       </c>
       <c r="F3">
-        <v>5.26039306631813</v>
+        <v>0.2232586508980035</v>
       </c>
       <c r="G3">
-        <v>0.0006688376753281295</v>
+        <v>0.1330913745147413</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.128790806719536</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1516714092194853</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.702327428689046</v>
+        <v>4.753317353314173</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.296953455491348</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.548891727963195</v>
+        <v>0.5032349753089846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1322734642393328</v>
+        <v>0.06006039264657659</v>
       </c>
       <c r="D4">
-        <v>0.189317502108338</v>
+        <v>0.05852156717276813</v>
       </c>
       <c r="E4">
-        <v>1.291925889757906</v>
+        <v>1.108326100138569</v>
       </c>
       <c r="F4">
-        <v>4.662586290055941</v>
+        <v>0.2121870366806675</v>
       </c>
       <c r="G4">
-        <v>0.0006825873033148216</v>
+        <v>0.1263902707437765</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1304337127811337</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1449252462320807</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.891591338243444</v>
+        <v>4.329134137586323</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.235526888742328</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.028881664932328</v>
+        <v>0.4921950650579419</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1257439260485995</v>
+        <v>0.05760412766379375</v>
       </c>
       <c r="D5">
-        <v>0.1789894247283002</v>
+        <v>0.05624395975509344</v>
       </c>
       <c r="E5">
-        <v>1.2242532886454</v>
+        <v>1.059162550600547</v>
       </c>
       <c r="F5">
-        <v>4.429160918277972</v>
+        <v>0.2079340808791841</v>
       </c>
       <c r="G5">
-        <v>0.0006881569317221133</v>
+        <v>0.1239065222832281</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1312557876335205</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1423699153667108</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.568901864507694</v>
+        <v>4.156230251386148</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.210829665874257</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3.826017952752437</v>
+        <v>0.4885368918536983</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1246710461879985</v>
+        <v>0.05719624502820864</v>
       </c>
       <c r="D6">
-        <v>0.1773059563294623</v>
+        <v>0.05586562644648296</v>
       </c>
       <c r="E6">
-        <v>1.213170066857344</v>
+        <v>1.051025381829106</v>
       </c>
       <c r="F6">
-        <v>4.390944670263025</v>
+        <v>0.20724293064454</v>
       </c>
       <c r="G6">
-        <v>0.0006890806025130239</v>
+        <v>0.1235084179070611</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1314012422680761</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1419568753838973</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.515725650103633</v>
+        <v>4.1275154694805</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.206747980542502</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.792815370102119</v>
+        <v>0.4879784046956814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1321846125185004</v>
+        <v>0.06002726759794541</v>
       </c>
       <c r="D7">
-        <v>0.1891760144326042</v>
+        <v>0.05849085952043964</v>
       </c>
       <c r="E7">
-        <v>1.291002460653203</v>
+        <v>1.107661242866229</v>
       </c>
       <c r="F7">
-        <v>4.659400305900647</v>
+        <v>0.2121286583537554</v>
       </c>
       <c r="G7">
-        <v>0.000682662512791586</v>
+        <v>0.1263558011346575</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1304441938630703</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1448900192208527</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.887211006195315</v>
+        <v>4.326802547254999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.23519250168151</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4.026112102190297</v>
+        <v>0.4921424087645363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1673757768356836</v>
+        <v>0.07252191228532467</v>
       </c>
       <c r="D8">
-        <v>0.24722033995495</v>
+        <v>0.07005892115738988</v>
       </c>
       <c r="E8">
-        <v>1.66259235236079</v>
+        <v>1.361989643126037</v>
       </c>
       <c r="F8">
-        <v>5.941136212241787</v>
+        <v>0.2360156569171323</v>
       </c>
       <c r="G8">
-        <v>0.0006539545902110552</v>
+        <v>0.141145938654887</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1275856320479818</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1595756928747676</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.600322466071731</v>
+        <v>5.205951380177908</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.363743233522825</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>5.141840607182758</v>
+        <v>0.5180708259108115</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2494258974446524</v>
+        <v>0.09708606253860808</v>
       </c>
       <c r="D9">
-        <v>0.3980049424350653</v>
+        <v>0.09272461473943849</v>
       </c>
       <c r="E9">
-        <v>2.583144638399318</v>
+        <v>1.882699300878173</v>
       </c>
       <c r="F9">
-        <v>9.074055316384573</v>
+        <v>0.2926761986438464</v>
       </c>
       <c r="G9">
-        <v>0.000592993711602206</v>
+        <v>0.1796441614736253</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1275482518923425</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1957191793835911</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.44745039117677</v>
+        <v>6.932887993741645</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.629450613790993</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>7.880893214953574</v>
+        <v>0.6006292238256066</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3293048661958693</v>
+        <v>0.115230811607816</v>
       </c>
       <c r="D10">
-        <v>0.5669960412106718</v>
+        <v>0.1094106197761988</v>
       </c>
       <c r="E10">
-        <v>3.581120619554923</v>
+        <v>2.285324977406802</v>
       </c>
       <c r="F10">
-        <v>12.31540995633608</v>
+        <v>0.3417901767437854</v>
       </c>
       <c r="G10">
-        <v>0.0005384708453852754</v>
+        <v>0.2152652372032762</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1315999615502434</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2278694210663943</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.03514161329858</v>
+        <v>8.207723029074998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.836321674985129</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.73172107255579</v>
+        <v>0.6853352835519644</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3777461155575565</v>
+        <v>0.1235211345442195</v>
       </c>
       <c r="D11">
-        <v>0.6820973345700168</v>
+        <v>0.117020265305257</v>
       </c>
       <c r="E11">
-        <v>4.260827852324837</v>
+        <v>2.474564014273312</v>
       </c>
       <c r="F11">
-        <v>14.38261326896523</v>
+        <v>0.3661255928710077</v>
       </c>
       <c r="G11">
-        <v>0.0005067078105754833</v>
+        <v>0.2334432086637577</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1344968312114574</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2439840953641976</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.15452508192851</v>
+        <v>8.790065194518775</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.933812850746506</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>12.55921288827469</v>
+        <v>0.7302501412532649</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4002713114354606</v>
+        <v>0.1266669717694953</v>
       </c>
       <c r="D12">
-        <v>0.7395461336785161</v>
+        <v>0.119905625772418</v>
       </c>
       <c r="E12">
-        <v>4.604430758844927</v>
+        <v>2.547263873789305</v>
       </c>
       <c r="F12">
-        <v>15.37426627699455</v>
+        <v>0.375661199672372</v>
       </c>
       <c r="G12">
-        <v>0.0004921134886295015</v>
+        <v>0.2406457317470085</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1357608755864419</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2503257225572781</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.12989907498508</v>
+        <v>9.011027331343996</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.971198609400005</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>13.43867717431206</v>
+        <v>0.7482830716409694</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3951286001928338</v>
+        <v>0.1259891501627521</v>
       </c>
       <c r="D13">
-        <v>0.7261857462037824</v>
+        <v>0.1192840276472964</v>
       </c>
       <c r="E13">
-        <v>4.524136287847156</v>
+        <v>2.531557587545308</v>
       </c>
       <c r="F13">
-        <v>15.14599705443615</v>
+        <v>0.3735927193689577</v>
       </c>
       <c r="G13">
-        <v>0.0004954399133456328</v>
+        <v>0.2390797598830758</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1354809472884924</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2489488677216443</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.90764499642742</v>
+        <v>8.963417916856258</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.963132252361248</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.23606315453469</v>
+        <v>0.744351970672767</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.379482155610205</v>
+        <v>0.1237798070835368</v>
       </c>
       <c r="D14">
-        <v>0.6864290897869694</v>
+        <v>0.117257564275576</v>
       </c>
       <c r="E14">
-        <v>4.286598471772535</v>
+        <v>2.480523229351732</v>
       </c>
       <c r="F14">
-        <v>14.45830644567599</v>
+        <v>0.3669034690773216</v>
       </c>
       <c r="G14">
-        <v>0.0005055803195847827</v>
+        <v>0.2340291597224109</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1345973823583364</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2445008751148734</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.22988722651982</v>
+        <v>8.808234449967415</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.936880946212852</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.62627614186769</v>
+        <v>0.7317125359541166</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.370595558254152</v>
+        <v>0.12242740308848</v>
       </c>
       <c r="D15">
-        <v>0.6644156540103978</v>
+        <v>0.1160168174314435</v>
       </c>
       <c r="E15">
-        <v>4.155828169017525</v>
+        <v>2.449403791134017</v>
       </c>
       <c r="F15">
-        <v>14.07207751720063</v>
+        <v>0.3628488784535122</v>
       </c>
       <c r="G15">
-        <v>0.0005113579487595912</v>
+        <v>0.2309781537869711</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1340784165177951</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2418083098244921</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.84373875669542</v>
+        <v>8.713240612275399</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.920855290979205</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.2841940886054</v>
+        <v>0.7241073084732932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3265100493879629</v>
+        <v>0.1146898534956762</v>
       </c>
       <c r="D16">
-        <v>0.5606708716624951</v>
+        <v>0.108913779423915</v>
       </c>
       <c r="E16">
-        <v>3.543927449553578</v>
+        <v>2.273093734154898</v>
       </c>
       <c r="F16">
-        <v>12.19863046192634</v>
+        <v>0.3402427176671239</v>
       </c>
       <c r="G16">
-        <v>0.0005403261947158583</v>
+        <v>0.2141199051145364</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1314331427944708</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.226848358076019</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.91174494863151</v>
+        <v>8.169722039778947</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.830022765658896</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.62870739715783</v>
+        <v>0.6825373201538412</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3033856807459756</v>
+        <v>0.1099532525142735</v>
       </c>
       <c r="D17">
-        <v>0.5095423604298617</v>
+        <v>0.1045618695630424</v>
       </c>
       <c r="E17">
-        <v>3.24325143072069</v>
+        <v>2.166601564527369</v>
       </c>
       <c r="F17">
-        <v>11.24209610727891</v>
+        <v>0.3269080834573188</v>
       </c>
       <c r="G17">
-        <v>0.0005558012259116182</v>
+        <v>0.2043073761742278</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.130090837154512</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2180695609763887</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.885315880826</v>
+        <v>7.836973495011023</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.775214392087776</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.78579712808525</v>
+        <v>0.6587429280974675</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2910321798334365</v>
+        <v>0.1072322083868471</v>
       </c>
       <c r="D18">
-        <v>0.4830766323004383</v>
+        <v>0.1020604972282797</v>
       </c>
       <c r="E18">
-        <v>3.087371439285576</v>
+        <v>2.105911582527355</v>
       </c>
       <c r="F18">
-        <v>10.73799501701967</v>
+        <v>0.3194237731607359</v>
       </c>
       <c r="G18">
-        <v>0.0005641697152101168</v>
+        <v>0.1988469599805569</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1294169472787274</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2131587755104718</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.33273921685989</v>
+        <v>7.64580625256491</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.744009442732676</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.342191580309446</v>
+        <v>0.6456507171857027</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.286983279467961</v>
+        <v>0.1063114435979173</v>
       </c>
       <c r="D19">
-        <v>0.474526222596154</v>
+        <v>0.1012138439382539</v>
       </c>
       <c r="E19">
-        <v>3.036942068252571</v>
+        <v>2.085454765863517</v>
       </c>
       <c r="F19">
-        <v>10.5737935905552</v>
+        <v>0.3169205839226805</v>
       </c>
       <c r="G19">
-        <v>0.0005669296288853582</v>
+        <v>0.1970286562149468</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1292051905770748</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2115191340931588</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.15094931687165</v>
+        <v>7.58111552233737</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.73349649651999</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.197785991953026</v>
+        <v>0.6413167915013958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.305741704150833</v>
+        <v>0.1104571189807899</v>
       </c>
       <c r="D20">
-        <v>0.5146555359840477</v>
+        <v>0.1050249516870281</v>
       </c>
       <c r="E20">
-        <v>3.2733389814844</v>
+        <v>2.177878601305437</v>
       </c>
       <c r="F20">
-        <v>11.33877463132379</v>
+        <v>0.3283081538081092</v>
       </c>
       <c r="G20">
-        <v>0.0005542137038480082</v>
+        <v>0.2053327024509102</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1302234599046201</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.218989564972695</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.99035575970822</v>
+        <v>7.872371625889116</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.78101524333141</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>9.870921741861707</v>
+        <v>0.6612136941551796</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3839182701616153</v>
+        <v>0.1244285583744329</v>
       </c>
       <c r="D21">
-        <v>0.6975686953003901</v>
+        <v>0.1178526752676845</v>
       </c>
       <c r="E21">
-        <v>4.352963661141047</v>
+        <v>2.495483635775244</v>
       </c>
       <c r="F21">
-        <v>14.65226875725682</v>
+        <v>0.368859286470105</v>
       </c>
       <c r="G21">
-        <v>0.0005027016132811582</v>
+        <v>0.2355036913204387</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1348522414587379</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2458006498420957</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.42230613596752</v>
+        <v>8.853802800967287</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.944581260508357</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>12.79817389718613</v>
+        <v>0.7353963313590981</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4739703599684475</v>
+        <v>0.1335980982493936</v>
       </c>
       <c r="D22">
-        <v>0.9508281579490472</v>
+        <v>0.1262587573625211</v>
       </c>
       <c r="E22">
-        <v>5.926112311383548</v>
+        <v>2.709206604645019</v>
       </c>
       <c r="F22">
-        <v>18.7943825233599</v>
+        <v>0.3972468354981231</v>
       </c>
       <c r="G22">
-        <v>0.000444259048798125</v>
+        <v>0.257099921577904</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1388595171164013</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2647318340936735</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.30595314543817</v>
+        <v>9.497851269201533</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.052612211584375</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.48805414710384</v>
+        <v>0.7899088056862666</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.416969680248485</v>
+        <v>0.1287001792010614</v>
       </c>
       <c r="D23">
-        <v>0.7840029953278531</v>
+        <v>0.1217698594620344</v>
       </c>
       <c r="E23">
-        <v>4.873680306215789</v>
+        <v>2.594515696452632</v>
       </c>
       <c r="F23">
-        <v>16.12361094883565</v>
+        <v>0.3819113998069241</v>
       </c>
       <c r="G23">
-        <v>0.0004813236112541196</v>
+        <v>0.2453892819435097</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1366253605910543</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2544900553790228</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.85019152390942</v>
+        <v>9.153836200754881</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.995400186600619</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.10454432270399</v>
+        <v>0.7602246122174137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3046737180911236</v>
+        <v>0.1102293145328588</v>
       </c>
       <c r="D24">
-        <v>0.5123350906365118</v>
+        <v>0.1048155904688031</v>
       </c>
       <c r="E24">
-        <v>3.259685639298979</v>
+        <v>2.172778602502959</v>
       </c>
       <c r="F24">
-        <v>11.29492869774975</v>
+        <v>0.3276746177811702</v>
       </c>
       <c r="G24">
-        <v>0.000554933003281831</v>
+        <v>0.2048685914724828</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1301631976296207</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2185732086145222</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.94275460680643</v>
+        <v>7.856367719554555</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.77839173310079</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>9.832313843655527</v>
+        <v>0.6600948388418715</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2250428358724861</v>
+        <v>0.09042829864063151</v>
       </c>
       <c r="D25">
-        <v>0.3509105386467866</v>
+        <v>0.08659061125271705</v>
       </c>
       <c r="E25">
-        <v>2.30048852476277</v>
+        <v>1.738838798988866</v>
       </c>
       <c r="F25">
-        <v>8.122539574317443</v>
+        <v>0.2761493495132399</v>
       </c>
       <c r="G25">
-        <v>0.0006104430900967852</v>
+        <v>0.1680608260727681</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1268949834168609</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1850451546149152</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.3234542934415</v>
+        <v>6.464976403997696</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.555803728788447</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>7.047283398649768</v>
+        <v>0.5744365237268738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07590950328582835</v>
+        <v>0.02456200430219724</v>
       </c>
       <c r="D2">
-        <v>0.07319046515206651</v>
+        <v>0.024470825559753</v>
       </c>
       <c r="E2">
-        <v>1.432165129480126</v>
+        <v>0.4248831183909374</v>
       </c>
       <c r="F2">
-        <v>0.2431007275637143</v>
+        <v>0.3464024739650284</v>
       </c>
       <c r="G2">
-        <v>0.1457428065884585</v>
+        <v>0.2005477842955941</v>
       </c>
       <c r="H2">
-        <v>0.1271644532983487</v>
+        <v>0.379178972343901</v>
       </c>
       <c r="I2">
-        <v>0.1640134448898607</v>
+        <v>0.2515818745413299</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.444210613113739</v>
+        <v>1.784400975634981</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5270805332110058</v>
+        <v>1.068191922977817</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06608789770959334</v>
+        <v>0.02143509417579992</v>
       </c>
       <c r="D3">
-        <v>0.06410565809881064</v>
+        <v>0.0214550273307097</v>
       </c>
       <c r="E3">
-        <v>1.230138883121882</v>
+        <v>0.3706405723224719</v>
       </c>
       <c r="F3">
-        <v>0.2232586508980035</v>
+        <v>0.3480952699450341</v>
       </c>
       <c r="G3">
-        <v>0.1330913745147413</v>
+        <v>0.2030354731723278</v>
       </c>
       <c r="H3">
-        <v>0.128790806719536</v>
+        <v>0.3850595669738652</v>
       </c>
       <c r="I3">
-        <v>0.1516714092194853</v>
+        <v>0.2535577513752401</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.753317353314173</v>
+        <v>1.557906378721498</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5032349753089846</v>
+        <v>1.085486744642807</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06006039264657659</v>
+        <v>0.01950949172042016</v>
       </c>
       <c r="D4">
-        <v>0.05852156717276813</v>
+        <v>0.01959489452532637</v>
       </c>
       <c r="E4">
-        <v>1.108326100138569</v>
+        <v>0.3374208952504603</v>
       </c>
       <c r="F4">
-        <v>0.2121870366806675</v>
+        <v>0.3495513776082149</v>
       </c>
       <c r="G4">
-        <v>0.1263902707437765</v>
+        <v>0.2049025081595843</v>
       </c>
       <c r="H4">
-        <v>0.1304337127811337</v>
+        <v>0.3889781425419869</v>
       </c>
       <c r="I4">
-        <v>0.1449252462320807</v>
+        <v>0.25508141856427</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.329134137586323</v>
+        <v>1.418251538986794</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4921950650579419</v>
+        <v>1.097460660044987</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05760412766379375</v>
+        <v>0.01872341666005894</v>
       </c>
       <c r="D5">
-        <v>0.05624395975509344</v>
+        <v>0.0188348175072548</v>
       </c>
       <c r="E5">
-        <v>1.059162550600547</v>
+        <v>0.3239034082975962</v>
       </c>
       <c r="F5">
-        <v>0.2079340808791841</v>
+        <v>0.3502490677200925</v>
       </c>
       <c r="G5">
-        <v>0.1239065222832281</v>
+        <v>0.2057481309850999</v>
       </c>
       <c r="H5">
-        <v>0.1312557876335205</v>
+        <v>0.3906522205825596</v>
       </c>
       <c r="I5">
-        <v>0.1423699153667108</v>
+        <v>0.2557800282795633</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.156230251386148</v>
+        <v>1.361197714077605</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4885368918536983</v>
+        <v>1.102679135351053</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05719624502820864</v>
+        <v>0.0185928078027402</v>
       </c>
       <c r="D6">
-        <v>0.05586562644648296</v>
+        <v>0.01870848477923914</v>
       </c>
       <c r="E6">
-        <v>1.051025381829106</v>
+        <v>0.3216599866585739</v>
       </c>
       <c r="F6">
-        <v>0.20724293064454</v>
+        <v>0.3503712050539818</v>
       </c>
       <c r="G6">
-        <v>0.1235084179070611</v>
+        <v>0.2058936495703634</v>
       </c>
       <c r="H6">
-        <v>0.1314012422680761</v>
+        <v>0.3909348587326207</v>
       </c>
       <c r="I6">
-        <v>0.1419568753838973</v>
+        <v>0.2559007141807328</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.1275154694805</v>
+        <v>1.351715433141521</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4879784046956814</v>
+        <v>1.103566085333895</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06002726759794541</v>
+        <v>0.01949889594731502</v>
       </c>
       <c r="D7">
-        <v>0.05849085952043964</v>
+        <v>0.01958465211271232</v>
       </c>
       <c r="E7">
-        <v>1.107661242866229</v>
+        <v>0.3372385157348674</v>
       </c>
       <c r="F7">
-        <v>0.2121286583537554</v>
+        <v>0.349560365166802</v>
       </c>
       <c r="G7">
-        <v>0.1263558011346575</v>
+        <v>0.2049135700071218</v>
       </c>
       <c r="H7">
-        <v>0.1304441938630703</v>
+        <v>0.3890004073086004</v>
       </c>
       <c r="I7">
-        <v>0.1448900192208527</v>
+        <v>0.255090526131589</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.326802547254999</v>
+        <v>1.417482666108356</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4921424087645363</v>
+        <v>1.097529667826521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07252191228532467</v>
+        <v>0.02348504994654377</v>
       </c>
       <c r="D8">
-        <v>0.07005892115738988</v>
+        <v>0.02343276064935651</v>
       </c>
       <c r="E8">
-        <v>1.361989643126037</v>
+        <v>0.4061615152260032</v>
       </c>
       <c r="F8">
-        <v>0.2360156569171323</v>
+        <v>0.346899373121758</v>
       </c>
       <c r="G8">
-        <v>0.141145938654887</v>
+        <v>0.2013346979065673</v>
       </c>
       <c r="H8">
-        <v>0.1275856320479818</v>
+        <v>0.3811425904529813</v>
       </c>
       <c r="I8">
-        <v>0.1595756928747676</v>
+        <v>0.252198497421027</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.205951380177908</v>
+        <v>1.706429671766102</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5180708259108115</v>
+        <v>1.073872977814048</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09708606253860808</v>
+        <v>0.03125517362950347</v>
       </c>
       <c r="D9">
-        <v>0.09272461473943849</v>
+        <v>0.03090983621817145</v>
       </c>
       <c r="E9">
-        <v>1.882699300878173</v>
+        <v>0.5420800674901614</v>
       </c>
       <c r="F9">
-        <v>0.2926761986438464</v>
+        <v>0.3450094610152519</v>
       </c>
       <c r="G9">
-        <v>0.1796441614736253</v>
+        <v>0.1970380628082467</v>
       </c>
       <c r="H9">
-        <v>0.1275482518923425</v>
+        <v>0.3681846200660317</v>
       </c>
       <c r="I9">
-        <v>0.1957191793835911</v>
+        <v>0.2490074440067858</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.932887993741645</v>
+        <v>2.268252045987879</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6006292238256066</v>
+        <v>1.038307482663711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.115230811607816</v>
+        <v>0.03693362884746421</v>
       </c>
       <c r="D10">
-        <v>0.1094106197761988</v>
+        <v>0.03635869126316038</v>
       </c>
       <c r="E10">
-        <v>2.285324977406802</v>
+        <v>0.6425268476959758</v>
       </c>
       <c r="F10">
-        <v>0.3417901767437854</v>
+        <v>0.3456806227796108</v>
       </c>
       <c r="G10">
-        <v>0.2152652372032762</v>
+        <v>0.1955779129907924</v>
       </c>
       <c r="H10">
-        <v>0.1315999615502434</v>
+        <v>0.3601701640416124</v>
       </c>
       <c r="I10">
-        <v>0.2278694210663943</v>
+        <v>0.2481984410142886</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.207723029074998</v>
+        <v>2.677935760104219</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6853352835519644</v>
+        <v>1.018880683339091</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1235211345442195</v>
+        <v>0.0395100001719868</v>
       </c>
       <c r="D11">
-        <v>0.117020265305257</v>
+        <v>0.03882736665640607</v>
       </c>
       <c r="E11">
-        <v>2.474564014273312</v>
+        <v>0.6883776182536252</v>
       </c>
       <c r="F11">
-        <v>0.3661255928710077</v>
+        <v>0.3464398041583152</v>
       </c>
       <c r="G11">
-        <v>0.2334432086637577</v>
+        <v>0.1952900962870885</v>
       </c>
       <c r="H11">
-        <v>0.1344968312114574</v>
+        <v>0.3568536073079471</v>
       </c>
       <c r="I11">
-        <v>0.2439840953641976</v>
+        <v>0.2481688688149504</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.790065194518775</v>
+        <v>2.863610638929913</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7302501412532649</v>
+        <v>1.011520760251813</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1266669717694953</v>
+        <v>0.04048458906603969</v>
       </c>
       <c r="D12">
-        <v>0.119905625772418</v>
+        <v>0.03976069612052413</v>
       </c>
       <c r="E12">
-        <v>2.547263873789305</v>
+        <v>0.7057647355573522</v>
       </c>
       <c r="F12">
-        <v>0.375661199672372</v>
+        <v>0.3467930748156789</v>
       </c>
       <c r="G12">
-        <v>0.2406457317470085</v>
+        <v>0.1952358855262304</v>
       </c>
       <c r="H12">
-        <v>0.1357608755864419</v>
+        <v>0.3556452687326868</v>
       </c>
       <c r="I12">
-        <v>0.2503257225572781</v>
+        <v>0.2482067422034646</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.011027331343996</v>
+        <v>2.933817967073026</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7482830716409694</v>
+        <v>1.008948021356048</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1259891501627521</v>
+        <v>0.04027474039560275</v>
       </c>
       <c r="D13">
-        <v>0.1192840276472964</v>
+        <v>0.03955975479213691</v>
       </c>
       <c r="E13">
-        <v>2.531557587545308</v>
+        <v>0.7020189928327625</v>
       </c>
       <c r="F13">
-        <v>0.3735927193689577</v>
+        <v>0.346714057582254</v>
       </c>
       <c r="G13">
-        <v>0.2390797598830758</v>
+        <v>0.1952451140971974</v>
       </c>
       <c r="H13">
-        <v>0.1354809472884924</v>
+        <v>0.3559033868554167</v>
       </c>
       <c r="I13">
-        <v>0.2489488677216443</v>
+        <v>0.2481963965953611</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.963417916856258</v>
+        <v>2.918702241447079</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.744351970672767</v>
+        <v>1.009492545982994</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1237798070835368</v>
+        <v>0.03959020106158562</v>
       </c>
       <c r="D14">
-        <v>0.117257564275576</v>
+        <v>0.03890418272979446</v>
       </c>
       <c r="E14">
-        <v>2.480523229351732</v>
+        <v>0.6898075666943413</v>
       </c>
       <c r="F14">
-        <v>0.3669034690773216</v>
+        <v>0.3464675465426339</v>
       </c>
       <c r="G14">
-        <v>0.2340291597224109</v>
+        <v>0.1952845347494048</v>
       </c>
       <c r="H14">
-        <v>0.1345973823583364</v>
+        <v>0.3567532419286366</v>
       </c>
       <c r="I14">
-        <v>0.2445008751148734</v>
+        <v>0.2481709989022249</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.808234449967415</v>
+        <v>2.869388740414081</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7317125359541166</v>
+        <v>1.011304793891654</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.12242740308848</v>
+        <v>0.03917076569707945</v>
       </c>
       <c r="D15">
-        <v>0.1160168174314435</v>
+        <v>0.03850242820305994</v>
       </c>
       <c r="E15">
-        <v>2.449403791134017</v>
+        <v>0.6823309516142899</v>
       </c>
       <c r="F15">
-        <v>0.3628488784535122</v>
+        <v>0.3463251339864257</v>
       </c>
       <c r="G15">
-        <v>0.2309781537869711</v>
+        <v>0.1953158342275287</v>
       </c>
       <c r="H15">
-        <v>0.1340784165177951</v>
+        <v>0.3572800042542781</v>
       </c>
       <c r="I15">
-        <v>0.2418083098244921</v>
+        <v>0.2481618446327332</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.713240612275399</v>
+        <v>2.839169167190903</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7241073084732932</v>
+        <v>1.012442811760295</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1146898534956762</v>
+        <v>0.03676511597967647</v>
       </c>
       <c r="D16">
-        <v>0.108913779423915</v>
+        <v>0.03619715032350257</v>
       </c>
       <c r="E16">
-        <v>2.273093734154898</v>
+        <v>0.6395337091026505</v>
       </c>
       <c r="F16">
-        <v>0.3402427176671239</v>
+        <v>0.345640185895256</v>
       </c>
       <c r="G16">
-        <v>0.2141199051145364</v>
+        <v>0.1956043525814479</v>
       </c>
       <c r="H16">
-        <v>0.1314331427944708</v>
+        <v>0.360393553369704</v>
       </c>
       <c r="I16">
-        <v>0.226848358076019</v>
+        <v>0.2482072185533681</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.169722039778947</v>
+        <v>2.665787181759015</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6825373201538412</v>
+        <v>1.019391559555785</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1099532525142735</v>
+        <v>0.03528755309433507</v>
       </c>
       <c r="D17">
-        <v>0.1045618695630424</v>
+        <v>0.03478032276693455</v>
       </c>
       <c r="E17">
-        <v>2.166601564527369</v>
+        <v>0.6133205123348944</v>
       </c>
       <c r="F17">
-        <v>0.3269080834573188</v>
+        <v>0.3453366086508112</v>
       </c>
       <c r="G17">
-        <v>0.2043073761742278</v>
+        <v>0.1958782213386669</v>
       </c>
       <c r="H17">
-        <v>0.130090837154512</v>
+        <v>0.3623881043109805</v>
       </c>
       <c r="I17">
-        <v>0.2180695609763887</v>
+        <v>0.2483220257202241</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.836973495011023</v>
+        <v>2.559242652070395</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6587429280974675</v>
+        <v>1.024034113582161</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1072322083868471</v>
+        <v>0.03443706225732512</v>
       </c>
       <c r="D18">
-        <v>0.1020604972282797</v>
+        <v>0.03396445999031528</v>
       </c>
       <c r="E18">
-        <v>2.105911582527355</v>
+        <v>0.5982580435320699</v>
       </c>
       <c r="F18">
-        <v>0.3194237731607359</v>
+        <v>0.345204688113192</v>
       </c>
       <c r="G18">
-        <v>0.1988469599805569</v>
+        <v>0.1960711342506798</v>
       </c>
       <c r="H18">
-        <v>0.1294169472787274</v>
+        <v>0.3635662954074377</v>
       </c>
       <c r="I18">
-        <v>0.2131587755104718</v>
+        <v>0.2484198919521781</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.64580625256491</v>
+        <v>2.49789613968926</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6456507171857027</v>
+        <v>1.026843339447936</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1063114435979173</v>
+        <v>0.03414899305057872</v>
       </c>
       <c r="D19">
-        <v>0.1012138439382539</v>
+        <v>0.03368806312460038</v>
       </c>
       <c r="E19">
-        <v>2.085454765863517</v>
+        <v>0.5931606138200607</v>
       </c>
       <c r="F19">
-        <v>0.3169205839226805</v>
+        <v>0.3451673381233462</v>
       </c>
       <c r="G19">
-        <v>0.1970286562149468</v>
+        <v>0.1961425098004668</v>
       </c>
       <c r="H19">
-        <v>0.1292051905770748</v>
+        <v>0.3639705244268612</v>
       </c>
       <c r="I19">
-        <v>0.2115191340931588</v>
+        <v>0.2484584826841036</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.58111552233737</v>
+        <v>2.477114243059361</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6413167915013958</v>
+        <v>1.027818303681116</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1104571189807899</v>
+        <v>0.03544490835584213</v>
       </c>
       <c r="D20">
-        <v>0.1050249516870281</v>
+        <v>0.03493124431884098</v>
       </c>
       <c r="E20">
-        <v>2.177878601305437</v>
+        <v>0.6161094204397415</v>
       </c>
       <c r="F20">
-        <v>0.3283081538081092</v>
+        <v>0.3453645030393204</v>
       </c>
       <c r="G20">
-        <v>0.2053327024509102</v>
+        <v>0.1958453999999392</v>
       </c>
       <c r="H20">
-        <v>0.1302234599046201</v>
+        <v>0.3621725732240861</v>
       </c>
       <c r="I20">
-        <v>0.218989564972695</v>
+        <v>0.2483065068638375</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.872371625889116</v>
+        <v>2.570591248169706</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6612136941551796</v>
+        <v>1.023525511385571</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1244285583744329</v>
+        <v>0.03979129513538737</v>
       </c>
       <c r="D21">
-        <v>0.1178526752676845</v>
+        <v>0.03909678144599127</v>
       </c>
       <c r="E21">
-        <v>2.495483635775244</v>
+        <v>0.6933936808570422</v>
       </c>
       <c r="F21">
-        <v>0.368859286470105</v>
+        <v>0.3465381632839524</v>
       </c>
       <c r="G21">
-        <v>0.2355036913204387</v>
+        <v>0.1952714640682132</v>
       </c>
       <c r="H21">
-        <v>0.1348522414587379</v>
+        <v>0.3565023260976901</v>
       </c>
       <c r="I21">
-        <v>0.2458006498420957</v>
+        <v>0.2481771238154309</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.853802800967287</v>
+        <v>2.883876158867679</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7353963313590981</v>
+        <v>1.010766661837664</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1335980982493936</v>
+        <v>0.0426259005443228</v>
       </c>
       <c r="D22">
-        <v>0.1262587573625211</v>
+        <v>0.04181040454751894</v>
       </c>
       <c r="E22">
-        <v>2.709206604645019</v>
+        <v>0.744046653726997</v>
       </c>
       <c r="F22">
-        <v>0.3972468354981231</v>
+        <v>0.3476889047192557</v>
       </c>
       <c r="G22">
-        <v>0.257099921577904</v>
+        <v>0.1952159606425994</v>
       </c>
       <c r="H22">
-        <v>0.1388595171164013</v>
+        <v>0.353073866529023</v>
       </c>
       <c r="I22">
-        <v>0.2647318340936735</v>
+        <v>0.2483787789401575</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.497851269201533</v>
+        <v>3.088019512724827</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7899088056862666</v>
+        <v>1.003678004296972</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1287001792010614</v>
+        <v>0.04111358493980788</v>
       </c>
       <c r="D23">
-        <v>0.1217698594620344</v>
+        <v>0.04036291768456124</v>
       </c>
       <c r="E23">
-        <v>2.594515696452632</v>
+        <v>0.7169984875258564</v>
       </c>
       <c r="F23">
-        <v>0.3819113998069241</v>
+        <v>0.3470394535671986</v>
       </c>
       <c r="G23">
-        <v>0.2453892819435097</v>
+        <v>0.1952161256323635</v>
       </c>
       <c r="H23">
-        <v>0.1366253605910543</v>
+        <v>0.3548782465859333</v>
       </c>
       <c r="I23">
-        <v>0.2544900553790228</v>
+        <v>0.2482448300341034</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.153836200754881</v>
+        <v>2.979121214591146</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7602246122174137</v>
+        <v>1.00734636843525</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1102293145328588</v>
+        <v>0.03537377121642749</v>
       </c>
       <c r="D24">
-        <v>0.1048155904688031</v>
+        <v>0.03486301676061032</v>
       </c>
       <c r="E24">
-        <v>2.172778602502959</v>
+        <v>0.614848530818179</v>
       </c>
       <c r="F24">
-        <v>0.3276746177811702</v>
+        <v>0.3453517592959798</v>
       </c>
       <c r="G24">
-        <v>0.2048685914724828</v>
+        <v>0.1958601281130541</v>
       </c>
       <c r="H24">
-        <v>0.1301631976296207</v>
+        <v>0.3622699167295522</v>
       </c>
       <c r="I24">
-        <v>0.2185732086145222</v>
+        <v>0.2483134237193809</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.856367719554555</v>
+        <v>2.565460836138357</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6600948388418715</v>
+        <v>1.023755013979425</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09042829864063151</v>
+        <v>0.02915833581940319</v>
       </c>
       <c r="D25">
-        <v>0.08659061125271705</v>
+        <v>0.02889473869366554</v>
       </c>
       <c r="E25">
-        <v>1.738838798988866</v>
+        <v>0.5052163354439756</v>
       </c>
       <c r="F25">
-        <v>0.2761493495132399</v>
+        <v>0.3451612423365304</v>
       </c>
       <c r="G25">
-        <v>0.1680608260727681</v>
+        <v>0.197905182563531</v>
       </c>
       <c r="H25">
-        <v>0.1268949834168609</v>
+        <v>0.3714264947906116</v>
       </c>
       <c r="I25">
-        <v>0.1850451546149152</v>
+        <v>0.2496027574982698</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.464976403997696</v>
+        <v>2.116795026417037</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5744365237268738</v>
+        <v>1.046759242104642</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02456200430219724</v>
+        <v>0.07590950328558677</v>
       </c>
       <c r="D2">
-        <v>0.024470825559753</v>
+        <v>0.07319046515204519</v>
       </c>
       <c r="E2">
-        <v>0.4248831183909374</v>
+        <v>1.432165129480168</v>
       </c>
       <c r="F2">
-        <v>0.3464024739650284</v>
+        <v>0.2431007275636929</v>
       </c>
       <c r="G2">
-        <v>0.2005477842955941</v>
+        <v>0.1457428065884656</v>
       </c>
       <c r="H2">
-        <v>0.379178972343901</v>
+        <v>0.1271644532983487</v>
       </c>
       <c r="I2">
-        <v>0.2515818745413299</v>
+        <v>0.1640134448898607</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.784400975634981</v>
+        <v>5.444210613113739</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.068191922977817</v>
+        <v>0.5270805332109916</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02143509417579992</v>
+        <v>0.06608789770983492</v>
       </c>
       <c r="D3">
-        <v>0.0214550273307097</v>
+        <v>0.06410565809880353</v>
       </c>
       <c r="E3">
-        <v>0.3706405723224719</v>
+        <v>1.230138883121867</v>
       </c>
       <c r="F3">
-        <v>0.3480952699450341</v>
+        <v>0.2232586508979963</v>
       </c>
       <c r="G3">
-        <v>0.2030354731723278</v>
+        <v>0.1330913745147342</v>
       </c>
       <c r="H3">
-        <v>0.3850595669738652</v>
+        <v>0.1287908067195289</v>
       </c>
       <c r="I3">
-        <v>0.2535577513752401</v>
+        <v>0.1516714092194746</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.557906378721498</v>
+        <v>4.753317353314117</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.085486744642807</v>
+        <v>0.5032349753090557</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01950949172042016</v>
+        <v>0.06006039264651264</v>
       </c>
       <c r="D4">
-        <v>0.01959489452532637</v>
+        <v>0.05852156717278945</v>
       </c>
       <c r="E4">
-        <v>0.3374208952504603</v>
+        <v>1.108326100138527</v>
       </c>
       <c r="F4">
-        <v>0.3495513776082149</v>
+        <v>0.2121870366806959</v>
       </c>
       <c r="G4">
-        <v>0.2049025081595843</v>
+        <v>0.1263902707437197</v>
       </c>
       <c r="H4">
-        <v>0.3889781425419869</v>
+        <v>0.1304337127811337</v>
       </c>
       <c r="I4">
-        <v>0.25508141856427</v>
+        <v>0.1449252462320736</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.418251538986794</v>
+        <v>4.329134137586664</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.097460660044987</v>
+        <v>0.4921950650579561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01872341666005894</v>
+        <v>0.05760412766379375</v>
       </c>
       <c r="D5">
-        <v>0.0188348175072548</v>
+        <v>0.05624395975508634</v>
       </c>
       <c r="E5">
-        <v>0.3239034082975962</v>
+        <v>1.059162550600519</v>
       </c>
       <c r="F5">
-        <v>0.3502490677200925</v>
+        <v>0.2079340808791841</v>
       </c>
       <c r="G5">
-        <v>0.2057481309850999</v>
+        <v>0.123906522283292</v>
       </c>
       <c r="H5">
-        <v>0.3906522205825596</v>
+        <v>0.1312557876335205</v>
       </c>
       <c r="I5">
-        <v>0.2557800282795633</v>
+        <v>0.1423699153667108</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.361197714077605</v>
+        <v>4.156230251386091</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.102679135351053</v>
+        <v>0.4885368918536415</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0185928078027402</v>
+        <v>0.0571962450284289</v>
       </c>
       <c r="D6">
-        <v>0.01870848477923914</v>
+        <v>0.0558656264463977</v>
       </c>
       <c r="E6">
-        <v>0.3216599866585739</v>
+        <v>1.051025381829078</v>
       </c>
       <c r="F6">
-        <v>0.3503712050539818</v>
+        <v>0.2072429306445684</v>
       </c>
       <c r="G6">
-        <v>0.2058936495703634</v>
+        <v>0.123508417907118</v>
       </c>
       <c r="H6">
-        <v>0.3909348587326207</v>
+        <v>0.1314012422679625</v>
       </c>
       <c r="I6">
-        <v>0.2559007141807328</v>
+        <v>0.1419568753838973</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.351715433141521</v>
+        <v>4.127515469480727</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.103566085333895</v>
+        <v>0.4879784046956814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01949889594731502</v>
+        <v>0.06002726759776067</v>
       </c>
       <c r="D7">
-        <v>0.01958465211271232</v>
+        <v>0.05849085952033306</v>
       </c>
       <c r="E7">
-        <v>0.3372385157348674</v>
+        <v>1.1076612428662</v>
       </c>
       <c r="F7">
-        <v>0.349560365166802</v>
+        <v>0.2121286583537554</v>
       </c>
       <c r="G7">
-        <v>0.2049135700071218</v>
+        <v>0.1263558011346646</v>
       </c>
       <c r="H7">
-        <v>0.3890004073086004</v>
+        <v>0.1304441938630774</v>
       </c>
       <c r="I7">
-        <v>0.255090526131589</v>
+        <v>0.1448900192208527</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.417482666108356</v>
+        <v>4.326802547254999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.097529667826521</v>
+        <v>0.4921424087645505</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02348504994654377</v>
+        <v>0.07252191228543836</v>
       </c>
       <c r="D8">
-        <v>0.02343276064935651</v>
+        <v>0.07005892115749646</v>
       </c>
       <c r="E8">
-        <v>0.4061615152260032</v>
+        <v>1.361989643125995</v>
       </c>
       <c r="F8">
-        <v>0.346899373121758</v>
+        <v>0.2360156569171252</v>
       </c>
       <c r="G8">
-        <v>0.2013346979065673</v>
+        <v>0.1411459386548941</v>
       </c>
       <c r="H8">
-        <v>0.3811425904529813</v>
+        <v>0.1275856320480955</v>
       </c>
       <c r="I8">
-        <v>0.252198497421027</v>
+        <v>0.1595756928747676</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.706429671766102</v>
+        <v>5.205951380177964</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.073872977814048</v>
+        <v>0.5180708259108684</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03125517362950347</v>
+        <v>0.09708606253860808</v>
       </c>
       <c r="D9">
-        <v>0.03090983621817145</v>
+        <v>0.09272461473950244</v>
       </c>
       <c r="E9">
-        <v>0.5420800674901614</v>
+        <v>1.882699300878187</v>
       </c>
       <c r="F9">
-        <v>0.3450094610152519</v>
+        <v>0.2926761986438464</v>
       </c>
       <c r="G9">
-        <v>0.1970380628082467</v>
+        <v>0.1796441614735755</v>
       </c>
       <c r="H9">
-        <v>0.3681846200660317</v>
+        <v>0.1275482518923425</v>
       </c>
       <c r="I9">
-        <v>0.2490074440067858</v>
+        <v>0.1957191793835911</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.268252045987879</v>
+        <v>6.932887993741417</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.038307482663711</v>
+        <v>0.6006292238255924</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03693362884746421</v>
+        <v>0.1152308116073613</v>
       </c>
       <c r="D10">
-        <v>0.03635869126316038</v>
+        <v>0.1094106197763551</v>
       </c>
       <c r="E10">
-        <v>0.6425268476959758</v>
+        <v>2.285324977406788</v>
       </c>
       <c r="F10">
-        <v>0.3456806227796108</v>
+        <v>0.3417901767437783</v>
       </c>
       <c r="G10">
-        <v>0.1955779129907924</v>
+        <v>0.215265237203333</v>
       </c>
       <c r="H10">
-        <v>0.3601701640416124</v>
+        <v>0.1315999615502434</v>
       </c>
       <c r="I10">
-        <v>0.2481984410142886</v>
+        <v>0.2278694210663801</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.677935760104219</v>
+        <v>8.207723029074998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.018880683339091</v>
+        <v>0.6853352835520212</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0395100001719868</v>
+        <v>0.1235211345443474</v>
       </c>
       <c r="D11">
-        <v>0.03882736665640607</v>
+        <v>0.1170202653053991</v>
       </c>
       <c r="E11">
-        <v>0.6883776182536252</v>
+        <v>2.474564014273341</v>
       </c>
       <c r="F11">
-        <v>0.3464398041583152</v>
+        <v>0.3661255928710077</v>
       </c>
       <c r="G11">
-        <v>0.1952900962870885</v>
+        <v>0.2334432086638216</v>
       </c>
       <c r="H11">
-        <v>0.3568536073079471</v>
+        <v>0.1344968312114574</v>
       </c>
       <c r="I11">
-        <v>0.2481688688149504</v>
+        <v>0.2439840953641976</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.863610638929913</v>
+        <v>8.790065194518832</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.011520760251813</v>
+        <v>0.7302501412532507</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04048458906603969</v>
+        <v>0.1266669717697937</v>
       </c>
       <c r="D12">
-        <v>0.03976069612052413</v>
+        <v>0.119905625772418</v>
       </c>
       <c r="E12">
-        <v>0.7057647355573522</v>
+        <v>2.547263873789319</v>
       </c>
       <c r="F12">
-        <v>0.3467930748156789</v>
+        <v>0.3756611996723791</v>
       </c>
       <c r="G12">
-        <v>0.1952358855262304</v>
+        <v>0.2406457317469943</v>
       </c>
       <c r="H12">
-        <v>0.3556452687326868</v>
+        <v>0.1357608755863353</v>
       </c>
       <c r="I12">
-        <v>0.2482067422034646</v>
+        <v>0.2503257225572781</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.933817967073026</v>
+        <v>9.011027331343939</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.008948021356048</v>
+        <v>0.7482830716410263</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04027474039560275</v>
+        <v>0.1259891501632637</v>
       </c>
       <c r="D13">
-        <v>0.03955975479213691</v>
+        <v>0.1192840276472822</v>
       </c>
       <c r="E13">
-        <v>0.7020189928327625</v>
+        <v>2.531557587545365</v>
       </c>
       <c r="F13">
-        <v>0.346714057582254</v>
+        <v>0.3735927193689577</v>
       </c>
       <c r="G13">
-        <v>0.1952451140971974</v>
+        <v>0.2390797598830261</v>
       </c>
       <c r="H13">
-        <v>0.3559033868554167</v>
+        <v>0.1354809472884995</v>
       </c>
       <c r="I13">
-        <v>0.2481963965953611</v>
+        <v>0.2489488677216656</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.918702241447079</v>
+        <v>8.963417916856315</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.009492545982994</v>
+        <v>0.7443519706727812</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03959020106158562</v>
+        <v>0.123779807083821</v>
       </c>
       <c r="D14">
-        <v>0.03890418272979446</v>
+        <v>0.1172575642756328</v>
       </c>
       <c r="E14">
-        <v>0.6898075666943413</v>
+        <v>2.480523229351732</v>
       </c>
       <c r="F14">
-        <v>0.3464675465426339</v>
+        <v>0.3669034690773145</v>
       </c>
       <c r="G14">
-        <v>0.1952845347494048</v>
+        <v>0.2340291597224464</v>
       </c>
       <c r="H14">
-        <v>0.3567532419286366</v>
+        <v>0.1345973823583364</v>
       </c>
       <c r="I14">
-        <v>0.2481709989022249</v>
+        <v>0.2445008751148876</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.869388740414081</v>
+        <v>8.808234449967529</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.011304793891654</v>
+        <v>0.7317125359541308</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03917076569707945</v>
+        <v>0.12242740308848</v>
       </c>
       <c r="D15">
-        <v>0.03850242820305994</v>
+        <v>0.1160168174314862</v>
       </c>
       <c r="E15">
-        <v>0.6823309516142899</v>
+        <v>2.449403791134017</v>
       </c>
       <c r="F15">
-        <v>0.3463251339864257</v>
+        <v>0.3628488784535051</v>
       </c>
       <c r="G15">
-        <v>0.1953158342275287</v>
+        <v>0.230978153786964</v>
       </c>
       <c r="H15">
-        <v>0.3572800042542781</v>
+        <v>0.1340784165177951</v>
       </c>
       <c r="I15">
-        <v>0.2481618446327332</v>
+        <v>0.2418083098244921</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.839169167190903</v>
+        <v>8.713240612275399</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.012442811760295</v>
+        <v>0.724107308473279</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03676511597967647</v>
+        <v>0.114689853495662</v>
       </c>
       <c r="D16">
-        <v>0.03619715032350257</v>
+        <v>0.1089137794239861</v>
       </c>
       <c r="E16">
-        <v>0.6395337091026505</v>
+        <v>2.273093734154898</v>
       </c>
       <c r="F16">
-        <v>0.345640185895256</v>
+        <v>0.3402427176671239</v>
       </c>
       <c r="G16">
-        <v>0.1956043525814479</v>
+        <v>0.2141199051144795</v>
       </c>
       <c r="H16">
-        <v>0.360393553369704</v>
+        <v>0.1314331427944637</v>
       </c>
       <c r="I16">
-        <v>0.2482072185533681</v>
+        <v>0.2268483580760119</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.665787181759015</v>
+        <v>8.169722039778947</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.019391559555785</v>
+        <v>0.6825373201537985</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03528755309433507</v>
+        <v>0.1099532525144866</v>
       </c>
       <c r="D17">
-        <v>0.03478032276693455</v>
+        <v>0.1045618695631134</v>
       </c>
       <c r="E17">
-        <v>0.6133205123348944</v>
+        <v>2.166601564527426</v>
       </c>
       <c r="F17">
-        <v>0.3453366086508112</v>
+        <v>0.3269080834573259</v>
       </c>
       <c r="G17">
-        <v>0.1958782213386669</v>
+        <v>0.2043073761741923</v>
       </c>
       <c r="H17">
-        <v>0.3623881043109805</v>
+        <v>0.1300908371544054</v>
       </c>
       <c r="I17">
-        <v>0.2483220257202241</v>
+        <v>0.2180695609763887</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.559242652070395</v>
+        <v>7.836973495011023</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.024034113582161</v>
+        <v>0.6587429280974249</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03443706225732512</v>
+        <v>0.1072322083866339</v>
       </c>
       <c r="D18">
-        <v>0.03396445999031528</v>
+        <v>0.102060497228095</v>
       </c>
       <c r="E18">
-        <v>0.5982580435320699</v>
+        <v>2.105911582527312</v>
       </c>
       <c r="F18">
-        <v>0.345204688113192</v>
+        <v>0.3194237731607288</v>
       </c>
       <c r="G18">
-        <v>0.1960711342506798</v>
+        <v>0.1988469599805356</v>
       </c>
       <c r="H18">
-        <v>0.3635662954074377</v>
+        <v>0.1294169472788411</v>
       </c>
       <c r="I18">
-        <v>0.2484198919521781</v>
+        <v>0.2131587755104718</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.49789613968926</v>
+        <v>7.645806252564967</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.026843339447936</v>
+        <v>0.6456507171857027</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03414899305057872</v>
+        <v>0.1063114435979173</v>
       </c>
       <c r="D19">
-        <v>0.03368806312460038</v>
+        <v>0.1012138439383676</v>
       </c>
       <c r="E19">
-        <v>0.5931606138200607</v>
+        <v>2.085454765863531</v>
       </c>
       <c r="F19">
-        <v>0.3451673381233462</v>
+        <v>0.3169205839226805</v>
       </c>
       <c r="G19">
-        <v>0.1961425098004668</v>
+        <v>0.1970286562149468</v>
       </c>
       <c r="H19">
-        <v>0.3639705244268612</v>
+        <v>0.1292051905770748</v>
       </c>
       <c r="I19">
-        <v>0.2484584826841036</v>
+        <v>0.2115191340931588</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.477114243059361</v>
+        <v>7.581115522337257</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.027818303681116</v>
+        <v>0.6413167915013958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03544490835584213</v>
+        <v>0.110457118980591</v>
       </c>
       <c r="D20">
-        <v>0.03493124431884098</v>
+        <v>0.1050249516870281</v>
       </c>
       <c r="E20">
-        <v>0.6161094204397415</v>
+        <v>2.17787860130548</v>
       </c>
       <c r="F20">
-        <v>0.3453645030393204</v>
+        <v>0.3283081538081163</v>
       </c>
       <c r="G20">
-        <v>0.1958453999999392</v>
+        <v>0.2053327024507965</v>
       </c>
       <c r="H20">
-        <v>0.3621725732240861</v>
+        <v>0.130223459904613</v>
       </c>
       <c r="I20">
-        <v>0.2483065068638375</v>
+        <v>0.2189895649727021</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.570591248169706</v>
+        <v>7.872371625889286</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.023525511385571</v>
+        <v>0.6612136941551938</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03979129513538737</v>
+        <v>0.1244285583743618</v>
       </c>
       <c r="D21">
-        <v>0.03909678144599127</v>
+        <v>0.1178526752676277</v>
       </c>
       <c r="E21">
-        <v>0.6933936808570422</v>
+        <v>2.49548363577523</v>
       </c>
       <c r="F21">
-        <v>0.3465381632839524</v>
+        <v>0.3688592864700837</v>
       </c>
       <c r="G21">
-        <v>0.1952714640682132</v>
+        <v>0.2355036913204387</v>
       </c>
       <c r="H21">
-        <v>0.3565023260976901</v>
+        <v>0.1348522414587379</v>
       </c>
       <c r="I21">
-        <v>0.2481771238154309</v>
+        <v>0.2458006498421028</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.883876158867679</v>
+        <v>8.853802800967344</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.010766661837664</v>
+        <v>0.7353963313590981</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0426259005443228</v>
+        <v>0.1335980982493936</v>
       </c>
       <c r="D22">
-        <v>0.04181040454751894</v>
+        <v>0.1262587573625069</v>
       </c>
       <c r="E22">
-        <v>0.744046653726997</v>
+        <v>2.709206604645061</v>
       </c>
       <c r="F22">
-        <v>0.3476889047192557</v>
+        <v>0.3972468354981444</v>
       </c>
       <c r="G22">
-        <v>0.1952159606425994</v>
+        <v>0.2570999215778969</v>
       </c>
       <c r="H22">
-        <v>0.353073866529023</v>
+        <v>0.1388595171163871</v>
       </c>
       <c r="I22">
-        <v>0.2483787789401575</v>
+        <v>0.2647318340936664</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.088019512724827</v>
+        <v>9.49785126920159</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.003678004296972</v>
+        <v>0.7899088056863235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04111358493980788</v>
+        <v>0.1287001792010614</v>
       </c>
       <c r="D23">
-        <v>0.04036291768456124</v>
+        <v>0.1217698594622618</v>
       </c>
       <c r="E23">
-        <v>0.7169984875258564</v>
+        <v>2.594515696452632</v>
       </c>
       <c r="F23">
-        <v>0.3470394535671986</v>
+        <v>0.381911399806917</v>
       </c>
       <c r="G23">
-        <v>0.1952161256323635</v>
+        <v>0.2453892819435097</v>
       </c>
       <c r="H23">
-        <v>0.3548782465859333</v>
+        <v>0.1366253605909407</v>
       </c>
       <c r="I23">
-        <v>0.2482448300341034</v>
+        <v>0.2544900553790228</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.979121214591146</v>
+        <v>9.153836200755052</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.00734636843525</v>
+        <v>0.7602246122174137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03537377121642749</v>
+        <v>0.110229314533143</v>
       </c>
       <c r="D24">
-        <v>0.03486301676061032</v>
+        <v>0.1048155904690162</v>
       </c>
       <c r="E24">
-        <v>0.614848530818179</v>
+        <v>2.172778602502987</v>
       </c>
       <c r="F24">
-        <v>0.3453517592959798</v>
+        <v>0.3276746177811489</v>
       </c>
       <c r="G24">
-        <v>0.1958601281130541</v>
+        <v>0.2048685914723549</v>
       </c>
       <c r="H24">
-        <v>0.3622699167295522</v>
+        <v>0.1301631976296207</v>
       </c>
       <c r="I24">
-        <v>0.2483134237193809</v>
+        <v>0.2185732086145151</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.565460836138357</v>
+        <v>7.856367719554612</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.023755013979425</v>
+        <v>0.6600948388418857</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02915833581940319</v>
+        <v>0.09042829864087309</v>
       </c>
       <c r="D25">
-        <v>0.02889473869366554</v>
+        <v>0.08659061125286627</v>
       </c>
       <c r="E25">
-        <v>0.5052163354439756</v>
+        <v>1.73883879898888</v>
       </c>
       <c r="F25">
-        <v>0.3451612423365304</v>
+        <v>0.2761493495132399</v>
       </c>
       <c r="G25">
-        <v>0.197905182563531</v>
+        <v>0.1680608260727112</v>
       </c>
       <c r="H25">
-        <v>0.3714264947906116</v>
+        <v>0.1268949834169746</v>
       </c>
       <c r="I25">
-        <v>0.2496027574982698</v>
+        <v>0.185045154614901</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.116795026417037</v>
+        <v>6.464976403997809</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.046759242104642</v>
+        <v>0.5744365237269449</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07590950328558677</v>
+        <v>0.06810434909943552</v>
       </c>
       <c r="D2">
-        <v>0.07319046515204519</v>
+        <v>0.05566661989559663</v>
       </c>
       <c r="E2">
-        <v>1.432165129480168</v>
+        <v>1.351950241361322</v>
       </c>
       <c r="F2">
-        <v>0.2431007275636929</v>
+        <v>0.4388993298765911</v>
       </c>
       <c r="G2">
-        <v>0.1457428065884656</v>
+        <v>0.3320753443887838</v>
       </c>
       <c r="H2">
-        <v>0.1271644532983487</v>
+        <v>0.01094838825830777</v>
       </c>
       <c r="I2">
-        <v>0.1640134448898607</v>
+        <v>0.01687119360288936</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2624528319486217</v>
       </c>
       <c r="K2">
-        <v>5.444210613113739</v>
+        <v>0.3415717202716664</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.088756179293682</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5270805332109916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9551351686273506</v>
+      </c>
+      <c r="Q2">
+        <v>1.203423682623111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06608789770983492</v>
+        <v>0.06035898761947323</v>
       </c>
       <c r="D3">
-        <v>0.06410565809880353</v>
+        <v>0.0492122970855533</v>
       </c>
       <c r="E3">
-        <v>1.230138883121867</v>
+        <v>1.180677784001944</v>
       </c>
       <c r="F3">
-        <v>0.2232586508979963</v>
+        <v>0.403278385058087</v>
       </c>
       <c r="G3">
-        <v>0.1330913745147342</v>
+        <v>0.3051914408712193</v>
       </c>
       <c r="H3">
-        <v>0.1287908067195289</v>
+        <v>0.008060425931515458</v>
       </c>
       <c r="I3">
-        <v>0.1516714092194746</v>
+        <v>0.01358646671591934</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2536811808841435</v>
       </c>
       <c r="K3">
-        <v>4.753317353314117</v>
+        <v>0.3178075073580757</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.695900280603411</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5032349753090557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9236708215948681</v>
+      </c>
+      <c r="Q3">
+        <v>1.127790549145615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06006039264651264</v>
+        <v>0.05545867221027123</v>
       </c>
       <c r="D4">
-        <v>0.05852156717278945</v>
+        <v>0.04524980653939537</v>
       </c>
       <c r="E4">
-        <v>1.108326100138527</v>
+        <v>1.075644785383815</v>
       </c>
       <c r="F4">
-        <v>0.2121870366806959</v>
+        <v>0.3817875611610972</v>
       </c>
       <c r="G4">
-        <v>0.1263902707437197</v>
+        <v>0.2889776260240779</v>
       </c>
       <c r="H4">
-        <v>0.1304337127811337</v>
+        <v>0.006453065069237152</v>
       </c>
       <c r="I4">
-        <v>0.1449252462320736</v>
+        <v>0.0117043144599851</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.248506729114446</v>
       </c>
       <c r="K4">
-        <v>4.329134137586664</v>
+        <v>0.3033286772198309</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.453790608444251</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4921950650579561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9049955783661545</v>
+      </c>
+      <c r="Q4">
+        <v>1.082407662760232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05760412766379375</v>
+        <v>0.05308357107092121</v>
       </c>
       <c r="D5">
-        <v>0.05624395975508634</v>
+        <v>0.04368113242506411</v>
       </c>
       <c r="E5">
-        <v>1.059162550600519</v>
+        <v>1.032841182657052</v>
       </c>
       <c r="F5">
-        <v>0.2079340808791841</v>
+        <v>0.3727664794098331</v>
       </c>
       <c r="G5">
-        <v>0.123906522283292</v>
+        <v>0.28208009140711</v>
       </c>
       <c r="H5">
-        <v>0.1312557876335205</v>
+        <v>0.005834787008711761</v>
       </c>
       <c r="I5">
-        <v>0.1423699153667108</v>
+        <v>0.01101033980518729</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2462671383586326</v>
       </c>
       <c r="K5">
-        <v>4.156230251386091</v>
+        <v>0.2969644334598911</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.354028130664062</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4885368918536415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8978894179054322</v>
+      </c>
+      <c r="Q5">
+        <v>1.063021952292218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0571962450284289</v>
+        <v>0.05227011429957429</v>
       </c>
       <c r="D6">
-        <v>0.0558656264463977</v>
+        <v>0.04347737194936485</v>
       </c>
       <c r="E6">
-        <v>1.051025381829078</v>
+        <v>1.025711568937396</v>
       </c>
       <c r="F6">
-        <v>0.2072429306445684</v>
+        <v>0.3708434427965628</v>
       </c>
       <c r="G6">
-        <v>0.123508417907118</v>
+        <v>0.2805015913655495</v>
       </c>
       <c r="H6">
-        <v>0.1314012422679625</v>
+        <v>0.005732337376357144</v>
       </c>
       <c r="I6">
-        <v>0.1419568753838973</v>
+        <v>0.01095573922416904</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.245676621923181</v>
       </c>
       <c r="K6">
-        <v>4.127515469480727</v>
+        <v>0.2953114597083051</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.336383541178975</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4879784046956814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8971457751547689</v>
+      </c>
+      <c r="Q6">
+        <v>1.058426379703917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06002726759776067</v>
+        <v>0.05428115290919067</v>
       </c>
       <c r="D7">
-        <v>0.05849085952033306</v>
+        <v>0.0453840877969327</v>
       </c>
       <c r="E7">
-        <v>1.1076612428662</v>
+        <v>1.075004959119966</v>
       </c>
       <c r="F7">
-        <v>0.2121286583537554</v>
+        <v>0.3804883227744753</v>
       </c>
       <c r="G7">
-        <v>0.1263558011346646</v>
+        <v>0.2876882363715083</v>
       </c>
       <c r="H7">
-        <v>0.1304441938630774</v>
+        <v>0.006438779628355262</v>
       </c>
       <c r="I7">
-        <v>0.1448900192208527</v>
+        <v>0.01184110022408547</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.24787066861591</v>
       </c>
       <c r="K7">
-        <v>4.326802547254999</v>
+        <v>0.3016068185302565</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.449526358503277</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4921424087645505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9060747671962872</v>
+      </c>
+      <c r="Q7">
+        <v>1.078340409664108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07252191228543836</v>
+        <v>0.06393027350527092</v>
       </c>
       <c r="D8">
-        <v>0.07005892115749646</v>
+        <v>0.05364874415459298</v>
       </c>
       <c r="E8">
-        <v>1.361989643125995</v>
+        <v>1.292773444489995</v>
       </c>
       <c r="F8">
-        <v>0.2360156569171252</v>
+        <v>0.4249671046569503</v>
       </c>
       <c r="G8">
-        <v>0.1411459386548941</v>
+        <v>0.3211489065192836</v>
       </c>
       <c r="H8">
-        <v>0.1275856320480955</v>
+        <v>0.009907064856687447</v>
       </c>
       <c r="I8">
-        <v>0.1595756928747676</v>
+        <v>0.01587723223907922</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2585796749728786</v>
       </c>
       <c r="K8">
-        <v>5.205951380177964</v>
+        <v>0.3311750450060487</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.949571740055831</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5180708259108684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9457437352561442</v>
+      </c>
+      <c r="Q8">
+        <v>1.172056334231769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09708606253860808</v>
+        <v>0.08376233361273933</v>
       </c>
       <c r="D9">
-        <v>0.09272461473950244</v>
+        <v>0.06959467568791666</v>
       </c>
       <c r="E9">
-        <v>1.882699300878187</v>
+        <v>1.721713435700792</v>
       </c>
       <c r="F9">
-        <v>0.2926761986438464</v>
+        <v>0.5176853351632786</v>
       </c>
       <c r="G9">
-        <v>0.1796441614735755</v>
+        <v>0.3915611589738148</v>
       </c>
       <c r="H9">
-        <v>0.1275482518923425</v>
+        <v>0.01819298088495547</v>
       </c>
       <c r="I9">
-        <v>0.1957191793835911</v>
+        <v>0.02479133847433967</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2824833398353661</v>
       </c>
       <c r="K9">
-        <v>6.932887993741417</v>
+        <v>0.3931649172066685</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.928715784868245</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6006292238255924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.026768991572723</v>
+      </c>
+      <c r="Q9">
+        <v>1.372020974153315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1152308116073613</v>
+        <v>0.0974860941258413</v>
       </c>
       <c r="D10">
-        <v>0.1094106197763551</v>
+        <v>0.08231885873021128</v>
       </c>
       <c r="E10">
-        <v>2.285324977406788</v>
+        <v>1.937312261762472</v>
       </c>
       <c r="F10">
-        <v>0.3417901767437783</v>
+        <v>0.5814908573316231</v>
       </c>
       <c r="G10">
-        <v>0.215265237203333</v>
+        <v>0.4383656834498311</v>
       </c>
       <c r="H10">
-        <v>0.1315999615502434</v>
+        <v>0.02473739552679977</v>
       </c>
       <c r="I10">
-        <v>0.2278694210663801</v>
+        <v>0.03215048949647326</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2979564691796099</v>
       </c>
       <c r="K10">
-        <v>8.207723029074998</v>
+        <v>0.4340468589777231</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.626429204876558</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6853352835520212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.097713750771064</v>
+      </c>
+      <c r="Q10">
+        <v>1.504072006050791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1235211345443474</v>
+        <v>0.1060824736680246</v>
       </c>
       <c r="D11">
-        <v>0.1170202653053991</v>
+        <v>0.09650599663032011</v>
       </c>
       <c r="E11">
-        <v>2.474564014273341</v>
+        <v>1.250856842526943</v>
       </c>
       <c r="F11">
-        <v>0.3661255928710077</v>
+        <v>0.5549330804685439</v>
       </c>
       <c r="G11">
-        <v>0.2334432086638216</v>
+        <v>0.403691560434396</v>
       </c>
       <c r="H11">
-        <v>0.1344968312114574</v>
+        <v>0.0401097994808346</v>
       </c>
       <c r="I11">
-        <v>0.2439840953641976</v>
+        <v>0.03435043229780188</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2777405227489567</v>
       </c>
       <c r="K11">
-        <v>8.790065194518832</v>
+        <v>0.4096102151289571</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.792600092102589</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7302501412532507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.197020766192935</v>
+      </c>
+      <c r="Q11">
+        <v>1.388366802578844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1266669717697937</v>
+        <v>0.1128585154716433</v>
       </c>
       <c r="D12">
-        <v>0.119905625772418</v>
+        <v>0.1060104607977621</v>
       </c>
       <c r="E12">
-        <v>2.547263873789319</v>
+        <v>0.7576721619462177</v>
       </c>
       <c r="F12">
-        <v>0.3756611996723791</v>
+        <v>0.5210854224255002</v>
       </c>
       <c r="G12">
-        <v>0.2406457317469943</v>
+        <v>0.3674225595286345</v>
       </c>
       <c r="H12">
-        <v>0.1357608755863353</v>
+        <v>0.0760990311191847</v>
       </c>
       <c r="I12">
-        <v>0.2503257225572781</v>
+        <v>0.03449917636331001</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2585579478161861</v>
       </c>
       <c r="K12">
-        <v>9.011027331343939</v>
+        <v>0.3832655306917374</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.78905588584189</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7482830716410263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.266975498295466</v>
+      </c>
+      <c r="Q12">
+        <v>1.271346874471448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1259891501632637</v>
+        <v>0.116751725219018</v>
       </c>
       <c r="D13">
-        <v>0.1192840276472822</v>
+        <v>0.1125973947619769</v>
       </c>
       <c r="E13">
-        <v>2.531557587545365</v>
+        <v>0.3844710641991043</v>
       </c>
       <c r="F13">
-        <v>0.3735927193689577</v>
+        <v>0.4778532218805793</v>
       </c>
       <c r="G13">
-        <v>0.2390797598830261</v>
+        <v>0.3260233749210784</v>
       </c>
       <c r="H13">
-        <v>0.1354809472884995</v>
+        <v>0.1292728201197519</v>
       </c>
       <c r="I13">
-        <v>0.2489488677216656</v>
+        <v>0.03329213990958824</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2381082913125425</v>
       </c>
       <c r="K13">
-        <v>8.963417916856315</v>
+        <v>0.3514025522022806</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.650308241125174</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7443519706727812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.319109356407381</v>
+      </c>
+      <c r="Q13">
+        <v>1.140723905388626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.123779807083821</v>
+        <v>0.1178021667639655</v>
       </c>
       <c r="D14">
-        <v>0.1172575642756328</v>
+        <v>0.1159410805863246</v>
       </c>
       <c r="E14">
-        <v>2.480523229351732</v>
+        <v>0.1958426265154145</v>
       </c>
       <c r="F14">
-        <v>0.3669034690773145</v>
+        <v>0.4433708136207244</v>
       </c>
       <c r="G14">
-        <v>0.2340291597224464</v>
+        <v>0.2948468766041543</v>
       </c>
       <c r="H14">
-        <v>0.1345973823583364</v>
+        <v>0.1769609880552423</v>
       </c>
       <c r="I14">
-        <v>0.2445008751148876</v>
+        <v>0.03193268068771982</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2232276684847108</v>
       </c>
       <c r="K14">
-        <v>8.808234449967529</v>
+        <v>0.3264237353901933</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.491788198525683</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7317125359541308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.347827038371221</v>
+      </c>
+      <c r="Q14">
+        <v>1.043411913067672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.12242740308848</v>
+        <v>0.1168285604237269</v>
       </c>
       <c r="D15">
-        <v>0.1160168174314862</v>
+        <v>0.1161327936065248</v>
       </c>
       <c r="E15">
-        <v>2.449403791134017</v>
+        <v>0.1589374009900943</v>
       </c>
       <c r="F15">
-        <v>0.3628488784535051</v>
+        <v>0.4326079359066526</v>
       </c>
       <c r="G15">
-        <v>0.230978153786964</v>
+        <v>0.2857129073042515</v>
       </c>
       <c r="H15">
-        <v>0.1340784165177951</v>
+        <v>0.1889211144246588</v>
       </c>
       <c r="I15">
-        <v>0.2418083098244921</v>
+        <v>0.03137781639549075</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2191395918254671</v>
       </c>
       <c r="K15">
-        <v>8.713240612275399</v>
+        <v>0.3186208578705703</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.423583336298918</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.724107308473279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.351031708811306</v>
+      </c>
+      <c r="Q15">
+        <v>1.01545560676476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.114689853495662</v>
+        <v>0.1092826131835949</v>
       </c>
       <c r="D16">
-        <v>0.1089137794239861</v>
+        <v>0.1091341389253415</v>
       </c>
       <c r="E16">
-        <v>2.273093734154898</v>
+        <v>0.1559375932330411</v>
       </c>
       <c r="F16">
-        <v>0.3402427176671239</v>
+        <v>0.4138599592544026</v>
       </c>
       <c r="G16">
-        <v>0.2141199051144795</v>
+        <v>0.2740331344688514</v>
       </c>
       <c r="H16">
-        <v>0.1314331427944637</v>
+        <v>0.1741708038485825</v>
       </c>
       <c r="I16">
-        <v>0.2268483580760119</v>
+        <v>0.02855417049178399</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2164761487530029</v>
       </c>
       <c r="K16">
-        <v>8.169722039778947</v>
+        <v>0.307114083593568</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.153564298895162</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6825373201537985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.307228284767163</v>
+      </c>
+      <c r="Q16">
+        <v>0.984942703694017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1099532525144866</v>
+        <v>0.1028914973556425</v>
       </c>
       <c r="D17">
-        <v>0.1045618695631134</v>
+        <v>0.1020172609968455</v>
       </c>
       <c r="E17">
-        <v>2.166601564527426</v>
+        <v>0.240271913764758</v>
       </c>
       <c r="F17">
-        <v>0.3269080834573259</v>
+        <v>0.4176755162486643</v>
       </c>
       <c r="G17">
-        <v>0.2043073761741923</v>
+        <v>0.2814099878494929</v>
       </c>
       <c r="H17">
-        <v>0.1300908371544054</v>
+        <v>0.1356537493101513</v>
       </c>
       <c r="I17">
-        <v>0.2180695609763887</v>
+        <v>0.02712514941600386</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2222869099354838</v>
       </c>
       <c r="K17">
-        <v>7.836973495011023</v>
+        <v>0.3113916112545354</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.030285828908347</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6587429280974249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.258909447026682</v>
+      </c>
+      <c r="Q17">
+        <v>1.012645327737246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1072322083866339</v>
+        <v>0.09805985221451863</v>
       </c>
       <c r="D18">
-        <v>0.102060497228095</v>
+        <v>0.09400271937237648</v>
       </c>
       <c r="E18">
-        <v>2.105911582527312</v>
+        <v>0.4725763203411617</v>
       </c>
       <c r="F18">
-        <v>0.3194237731607288</v>
+        <v>0.4423973354213402</v>
       </c>
       <c r="G18">
-        <v>0.1988469599805356</v>
+        <v>0.3074480056075828</v>
       </c>
       <c r="H18">
-        <v>0.1294169472788411</v>
+        <v>0.08352348936118403</v>
       </c>
       <c r="I18">
-        <v>0.2131587755104718</v>
+        <v>0.02655345347226223</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2366278365708467</v>
       </c>
       <c r="K18">
-        <v>7.645806252564967</v>
+        <v>0.3311854936070375</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.021344066557845</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6456507171857027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.20099975106092</v>
+      </c>
+      <c r="Q18">
+        <v>1.09782790176385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1063114435979173</v>
+        <v>0.09270318817931411</v>
       </c>
       <c r="D19">
-        <v>0.1012138439383676</v>
+        <v>0.08642809998572432</v>
       </c>
       <c r="E19">
-        <v>2.085454765863531</v>
+        <v>0.9046126370526366</v>
       </c>
       <c r="F19">
-        <v>0.3169205839226805</v>
+        <v>0.480835593688937</v>
       </c>
       <c r="G19">
-        <v>0.1970286562149468</v>
+        <v>0.3459189271790137</v>
       </c>
       <c r="H19">
-        <v>0.1292051905770748</v>
+        <v>0.04080794392949372</v>
       </c>
       <c r="I19">
-        <v>0.2115191340931588</v>
+        <v>0.02719353115275336</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2562185677689115</v>
       </c>
       <c r="K19">
-        <v>7.581115522337257</v>
+        <v>0.3598897695944174</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.099897682473113</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6413167915013958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.14365729723562</v>
+      </c>
+      <c r="Q19">
+        <v>1.220416252718337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.110457118980591</v>
+        <v>0.09030327512057568</v>
       </c>
       <c r="D20">
-        <v>0.1050249516870281</v>
+        <v>0.07951335635448942</v>
       </c>
       <c r="E20">
-        <v>2.17787860130548</v>
+        <v>1.876146066701523</v>
       </c>
       <c r="F20">
-        <v>0.3283081538081163</v>
+        <v>0.5605669453522211</v>
       </c>
       <c r="G20">
-        <v>0.2053327024507965</v>
+        <v>0.4218849567808576</v>
       </c>
       <c r="H20">
-        <v>0.130223459904613</v>
+        <v>0.02286563070979453</v>
       </c>
       <c r="I20">
-        <v>0.2189895649727021</v>
+        <v>0.03062693196991884</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.29177880250991</v>
       </c>
       <c r="K20">
-        <v>7.872371625889286</v>
+        <v>0.4178925030998428</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.43337153236746</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6612136941551938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.083043995677514</v>
+      </c>
+      <c r="Q20">
+        <v>1.456086267998785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1244285583743618</v>
+        <v>0.1006252561739416</v>
       </c>
       <c r="D21">
-        <v>0.1178526752676277</v>
+        <v>0.08781379506889664</v>
       </c>
       <c r="E21">
-        <v>2.49548363577523</v>
+        <v>2.199829212999632</v>
       </c>
       <c r="F21">
-        <v>0.3688592864700837</v>
+        <v>0.6210028114786112</v>
       </c>
       <c r="G21">
-        <v>0.2355036913204387</v>
+        <v>0.469257614627594</v>
       </c>
       <c r="H21">
-        <v>0.1348522414587379</v>
+        <v>0.02934562434063581</v>
       </c>
       <c r="I21">
-        <v>0.2458006498421028</v>
+        <v>0.0368227070583913</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3093178282236835</v>
       </c>
       <c r="K21">
-        <v>8.853802800967344</v>
+        <v>0.4580002477238239</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.99542702509973</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7353963313590981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.127117011982719</v>
+      </c>
+      <c r="Q21">
+        <v>1.593568712307047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1335980982493936</v>
+        <v>0.1089784871243467</v>
       </c>
       <c r="D22">
-        <v>0.1262587573625069</v>
+        <v>0.09349737219061893</v>
       </c>
       <c r="E22">
-        <v>2.709206604645061</v>
+        <v>2.360515859069608</v>
       </c>
       <c r="F22">
-        <v>0.3972468354981444</v>
+        <v>0.6595094464356634</v>
       </c>
       <c r="G22">
-        <v>0.2570999215778969</v>
+        <v>0.4990942066277029</v>
       </c>
       <c r="H22">
-        <v>0.1388595171163871</v>
+        <v>0.03352958578349652</v>
       </c>
       <c r="I22">
-        <v>0.2647318340936664</v>
+        <v>0.04081497245620191</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3203071860461364</v>
       </c>
       <c r="K22">
-        <v>9.49785126920159</v>
+        <v>0.4842248233084945</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.357857754529789</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7899088056863235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.158661303667586</v>
+      </c>
+      <c r="Q22">
+        <v>1.680037264656164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1287001792010614</v>
+        <v>0.105912472265203</v>
       </c>
       <c r="D23">
-        <v>0.1217698594622618</v>
+        <v>0.09027136843271677</v>
       </c>
       <c r="E23">
-        <v>2.594515696452632</v>
+        <v>2.274765236422454</v>
       </c>
       <c r="F23">
-        <v>0.381911399806917</v>
+        <v>0.6403141062732658</v>
       </c>
       <c r="G23">
-        <v>0.2453892819435097</v>
+        <v>0.4845588509633671</v>
       </c>
       <c r="H23">
-        <v>0.1366253605909407</v>
+        <v>0.03128225924610151</v>
       </c>
       <c r="I23">
-        <v>0.2544900553790228</v>
+        <v>0.03847486612039308</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3151322992178933</v>
       </c>
       <c r="K23">
-        <v>9.153836200755052</v>
+        <v>0.4721689575662751</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.16805423815606</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7602246122174137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.140233946012472</v>
+      </c>
+      <c r="Q23">
+        <v>1.638278457858888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.110229314533143</v>
+        <v>0.0918692992953396</v>
       </c>
       <c r="D24">
-        <v>0.1048155904690162</v>
+        <v>0.07838068988203872</v>
       </c>
       <c r="E24">
-        <v>2.172778602502987</v>
+        <v>1.951432156033533</v>
       </c>
       <c r="F24">
-        <v>0.3276746177811489</v>
+        <v>0.5667196497870606</v>
       </c>
       <c r="G24">
-        <v>0.2048685914723549</v>
+        <v>0.4283547241333139</v>
       </c>
       <c r="H24">
-        <v>0.1301631976296207</v>
+        <v>0.02331316827954932</v>
       </c>
       <c r="I24">
-        <v>0.2185732086145151</v>
+        <v>0.03036314672685148</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.295042280487408</v>
       </c>
       <c r="K24">
-        <v>7.856367719554612</v>
+        <v>0.4239637247480132</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.442799497208114</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6600948388418857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.074471116449843</v>
+      </c>
+      <c r="Q24">
+        <v>1.476636480216371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09042829864087309</v>
+        <v>0.07642236983343764</v>
       </c>
       <c r="D25">
-        <v>0.08659061125286627</v>
+        <v>0.06556407764654182</v>
       </c>
       <c r="E25">
-        <v>1.73883879898888</v>
+        <v>1.605247339111202</v>
       </c>
       <c r="F25">
-        <v>0.2761493495132399</v>
+        <v>0.4900351722062908</v>
       </c>
       <c r="G25">
-        <v>0.1680608260727112</v>
+        <v>0.3699954714868454</v>
       </c>
       <c r="H25">
-        <v>0.1268949834169746</v>
+        <v>0.0157562525146836</v>
       </c>
       <c r="I25">
-        <v>0.185045154614901</v>
+        <v>0.02248545434931337</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2747024228967803</v>
       </c>
       <c r="K25">
-        <v>6.464976403997809</v>
+        <v>0.3732675614992615</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.659077673764614</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5744365237269449</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.006469345928963</v>
+      </c>
+      <c r="Q25">
+        <v>1.309841822704925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06810434909943552</v>
+        <v>0.03929990116840543</v>
       </c>
       <c r="D2">
-        <v>0.05566661989559663</v>
+        <v>0.06078996043886775</v>
       </c>
       <c r="E2">
-        <v>1.351950241361322</v>
+        <v>1.346926471055639</v>
       </c>
       <c r="F2">
-        <v>0.4388993298765911</v>
+        <v>0.4083829165045856</v>
       </c>
       <c r="G2">
-        <v>0.3320753443887838</v>
+        <v>0.2839056663614201</v>
       </c>
       <c r="H2">
-        <v>0.01094838825830777</v>
+        <v>0.01040052162214668</v>
       </c>
       <c r="I2">
-        <v>0.01687119360288936</v>
+        <v>0.01497921392214607</v>
       </c>
       <c r="J2">
-        <v>0.2624528319486217</v>
+        <v>0.2915867262027803</v>
       </c>
       <c r="K2">
-        <v>0.3415717202716664</v>
+        <v>0.2991407541795752</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1763965106514753</v>
       </c>
       <c r="M2">
-        <v>3.088756179293682</v>
+        <v>0.07223494741122138</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.997432892248867</v>
       </c>
       <c r="P2">
-        <v>0.9551351686273506</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.203423682623111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9957443868429152</v>
+      </c>
+      <c r="S2">
+        <v>1.109380867860324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06035898761947323</v>
+        <v>0.03591690601425057</v>
       </c>
       <c r="D3">
-        <v>0.0492122970855533</v>
+        <v>0.05338423043455975</v>
       </c>
       <c r="E3">
-        <v>1.180677784001944</v>
+        <v>1.176784062434038</v>
       </c>
       <c r="F3">
-        <v>0.403278385058087</v>
+        <v>0.3783410178613948</v>
       </c>
       <c r="G3">
-        <v>0.3051914408712193</v>
+        <v>0.2624021092370157</v>
       </c>
       <c r="H3">
-        <v>0.008060425931515458</v>
+        <v>0.00767410653955769</v>
       </c>
       <c r="I3">
-        <v>0.01358646671591934</v>
+        <v>0.01229564546351947</v>
       </c>
       <c r="J3">
-        <v>0.2536811808841435</v>
+        <v>0.2838824556698967</v>
       </c>
       <c r="K3">
-        <v>0.3178075073580757</v>
+        <v>0.2824866709612799</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1773054809853853</v>
       </c>
       <c r="M3">
-        <v>2.695900280603411</v>
+        <v>0.05950136284286245</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.621574730048621</v>
       </c>
       <c r="P3">
-        <v>0.9236708215948681</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.127790549145615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.956624171610315</v>
+      </c>
+      <c r="S3">
+        <v>1.050786101166565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05545867221027123</v>
+        <v>0.0337187199142619</v>
       </c>
       <c r="D4">
-        <v>0.04524980653939537</v>
+        <v>0.04884857361174966</v>
       </c>
       <c r="E4">
-        <v>1.075644785383815</v>
+        <v>1.072408397995972</v>
       </c>
       <c r="F4">
-        <v>0.3817875611610972</v>
+        <v>0.360165426265084</v>
       </c>
       <c r="G4">
-        <v>0.2889776260240779</v>
+        <v>0.2494623359026562</v>
       </c>
       <c r="H4">
-        <v>0.006453065069237152</v>
+        <v>0.006154473765198065</v>
       </c>
       <c r="I4">
-        <v>0.0117043144599851</v>
+        <v>0.01075289694636794</v>
       </c>
       <c r="J4">
-        <v>0.248506729114446</v>
+        <v>0.2792048748191931</v>
       </c>
       <c r="K4">
-        <v>0.3033286772198309</v>
+        <v>0.2722516611091557</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1777827998918688</v>
       </c>
       <c r="M4">
-        <v>2.453790608444251</v>
+        <v>0.05226013402074869</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.389674562099657</v>
       </c>
       <c r="P4">
-        <v>0.9049955783661545</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.082407662760232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9333165429363106</v>
+      </c>
+      <c r="S4">
+        <v>1.015516116946642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05308357107092121</v>
+        <v>0.03254653581915079</v>
       </c>
       <c r="D5">
-        <v>0.04368113242506411</v>
+        <v>0.04705039310661618</v>
       </c>
       <c r="E5">
-        <v>1.032841182657052</v>
+        <v>1.029866314152784</v>
       </c>
       <c r="F5">
-        <v>0.3727664794098331</v>
+        <v>0.352486422074918</v>
       </c>
       <c r="G5">
-        <v>0.28208009140711</v>
+        <v>0.2439176241989927</v>
       </c>
       <c r="H5">
-        <v>0.005834787008711761</v>
+        <v>0.005569481312437508</v>
       </c>
       <c r="I5">
-        <v>0.01101033980518729</v>
+        <v>0.01020429061266448</v>
       </c>
       <c r="J5">
-        <v>0.2462671383586326</v>
+        <v>0.2771324921494198</v>
       </c>
       <c r="K5">
-        <v>0.2969644334598911</v>
+        <v>0.2676306625366998</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1777457529593569</v>
       </c>
       <c r="M5">
-        <v>2.354028130664062</v>
+        <v>0.04932418280701967</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.294042965017894</v>
       </c>
       <c r="P5">
-        <v>0.8978894179054322</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.063021952292218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9243481418351962</v>
+      </c>
+      <c r="S5">
+        <v>1.000237439247329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05227011429957429</v>
+        <v>0.0320519993193642</v>
       </c>
       <c r="D6">
-        <v>0.04347737194936485</v>
+        <v>0.04681034449524191</v>
       </c>
       <c r="E6">
-        <v>1.025711568937396</v>
+        <v>1.022781552592491</v>
       </c>
       <c r="F6">
-        <v>0.3708434427965628</v>
+        <v>0.3508061215256149</v>
       </c>
       <c r="G6">
-        <v>0.2805015913655495</v>
+        <v>0.2425952757454652</v>
       </c>
       <c r="H6">
-        <v>0.005732337376357144</v>
+        <v>0.005472593664427539</v>
       </c>
       <c r="I6">
-        <v>0.01095573922416904</v>
+        <v>0.0101918883242389</v>
       </c>
       <c r="J6">
-        <v>0.245676621923181</v>
+        <v>0.2765710563253023</v>
       </c>
       <c r="K6">
-        <v>0.2953114597083051</v>
+        <v>0.26631858001209</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1774811411723469</v>
       </c>
       <c r="M6">
-        <v>2.336383541178975</v>
+        <v>0.04868723080081594</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.27711129427928</v>
       </c>
       <c r="P6">
-        <v>0.8971457751547689</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.058426379703917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9233061306254911</v>
+      </c>
+      <c r="S6">
+        <v>0.9964041565164337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05428115290919067</v>
+        <v>0.03296508313729873</v>
       </c>
       <c r="D7">
-        <v>0.0453840877969327</v>
+        <v>0.04908198913374662</v>
       </c>
       <c r="E7">
-        <v>1.075004959119966</v>
+        <v>1.071742344378379</v>
       </c>
       <c r="F7">
-        <v>0.3804883227744753</v>
+        <v>0.3582680504105511</v>
       </c>
       <c r="G7">
-        <v>0.2876882363715083</v>
+        <v>0.251068888549419</v>
       </c>
       <c r="H7">
-        <v>0.006438779628355262</v>
+        <v>0.006137978139845734</v>
       </c>
       <c r="I7">
-        <v>0.01184110022408547</v>
+        <v>0.01093133954079839</v>
       </c>
       <c r="J7">
-        <v>0.24787066861591</v>
+        <v>0.2745581399748005</v>
       </c>
       <c r="K7">
-        <v>0.3016068185302565</v>
+        <v>0.2702356670956902</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1768799011184647</v>
       </c>
       <c r="M7">
-        <v>2.449526358503277</v>
+        <v>0.0516323015576603</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.383828956864619</v>
       </c>
       <c r="P7">
-        <v>0.9060747671962872</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.078340409664108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9351314659010512</v>
+      </c>
+      <c r="S7">
+        <v>1.009586697665995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06393027350527092</v>
+        <v>0.03734677101773798</v>
       </c>
       <c r="D8">
-        <v>0.05364874415459298</v>
+        <v>0.05877772598694975</v>
       </c>
       <c r="E8">
-        <v>1.292773444489995</v>
+        <v>1.288038801514574</v>
       </c>
       <c r="F8">
-        <v>0.4249671046569503</v>
+        <v>0.3942342642224688</v>
       </c>
       <c r="G8">
-        <v>0.3211489065192836</v>
+        <v>0.2843249477117595</v>
       </c>
       <c r="H8">
-        <v>0.009907064856687447</v>
+        <v>0.009406059708853054</v>
       </c>
       <c r="I8">
-        <v>0.01587723223907922</v>
+        <v>0.01423099524714555</v>
       </c>
       <c r="J8">
-        <v>0.2585796749728786</v>
+        <v>0.2749837572230618</v>
       </c>
       <c r="K8">
-        <v>0.3311750450060487</v>
+        <v>0.2898925100668528</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1752224061813621</v>
       </c>
       <c r="M8">
-        <v>2.949571740055831</v>
+        <v>0.06655428539203712</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.858505049989702</v>
       </c>
       <c r="P8">
-        <v>0.9457437352561442</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.172056334231769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9862462243803805</v>
+      </c>
+      <c r="S8">
+        <v>1.077150840845945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08376233361273933</v>
+        <v>0.04614392289928304</v>
       </c>
       <c r="D9">
-        <v>0.06959467568791666</v>
+        <v>0.07725465316888602</v>
       </c>
       <c r="E9">
-        <v>1.721713435700792</v>
+        <v>1.713852310494701</v>
       </c>
       <c r="F9">
-        <v>0.5176853351632786</v>
+        <v>0.4716495903039331</v>
       </c>
       <c r="G9">
-        <v>0.3915611589738148</v>
+        <v>0.3436972629428396</v>
       </c>
       <c r="H9">
-        <v>0.01819298088495547</v>
+        <v>0.0172052408191562</v>
       </c>
       <c r="I9">
-        <v>0.02479133847433967</v>
+        <v>0.0213798942384722</v>
       </c>
       <c r="J9">
-        <v>0.2824833398353661</v>
+        <v>0.2915788256326408</v>
       </c>
       <c r="K9">
-        <v>0.3931649172066685</v>
+        <v>0.3328146456368017</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1732434315699791</v>
       </c>
       <c r="M9">
-        <v>3.928715784868245</v>
+        <v>0.1018739931872936</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.792033486439152</v>
       </c>
       <c r="P9">
-        <v>1.026768991572723</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.372020974153315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.087517630296517</v>
+      </c>
+      <c r="S9">
+        <v>1.230197059448955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0974860941258413</v>
+        <v>0.05258353395344528</v>
       </c>
       <c r="D10">
-        <v>0.08231885873021128</v>
+        <v>0.09250590439250317</v>
       </c>
       <c r="E10">
-        <v>1.937312261762472</v>
+        <v>1.926967712116479</v>
       </c>
       <c r="F10">
-        <v>0.5814908573316231</v>
+        <v>0.5203238655209432</v>
       </c>
       <c r="G10">
-        <v>0.4383656834498311</v>
+        <v>0.3999327455195356</v>
       </c>
       <c r="H10">
-        <v>0.02473739552679977</v>
+        <v>0.02331428593952634</v>
       </c>
       <c r="I10">
-        <v>0.03215048949647326</v>
+        <v>0.02723614268359853</v>
       </c>
       <c r="J10">
-        <v>0.2979564691796099</v>
+        <v>0.2793898513779567</v>
       </c>
       <c r="K10">
-        <v>0.4340468589777231</v>
+        <v>0.3573636539516514</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1688834102442449</v>
       </c>
       <c r="M10">
-        <v>4.626429204876558</v>
+        <v>0.1278041626206488</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.445772788694569</v>
       </c>
       <c r="P10">
-        <v>1.097713750771064</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.504072006050791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.178320262141966</v>
+      </c>
+      <c r="S10">
+        <v>1.315940495343284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1060824736680246</v>
+        <v>0.05948943778845717</v>
       </c>
       <c r="D11">
-        <v>0.09650599663032011</v>
+        <v>0.1090387671254831</v>
       </c>
       <c r="E11">
-        <v>1.250856842526943</v>
+        <v>1.241842185780541</v>
       </c>
       <c r="F11">
-        <v>0.5549330804685439</v>
+        <v>0.4867716370559592</v>
       </c>
       <c r="G11">
-        <v>0.403691560434396</v>
+        <v>0.4035232168448033</v>
       </c>
       <c r="H11">
-        <v>0.0401097994808346</v>
+        <v>0.03869408845582711</v>
       </c>
       <c r="I11">
-        <v>0.03435043229780188</v>
+        <v>0.02904394248670261</v>
       </c>
       <c r="J11">
-        <v>0.2777405227489567</v>
+        <v>0.2217531149082106</v>
       </c>
       <c r="K11">
-        <v>0.4096102151289571</v>
+        <v>0.3299316076556735</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1535703079126804</v>
       </c>
       <c r="M11">
-        <v>4.792600092102589</v>
+        <v>0.1237650372801937</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.585204385376869</v>
       </c>
       <c r="P11">
-        <v>1.197020766192935</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.388366802578844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.295304354409609</v>
+      </c>
+      <c r="S11">
+        <v>1.183044570459487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1128585154716433</v>
+        <v>0.06568285475088942</v>
       </c>
       <c r="D12">
-        <v>0.1060104607977621</v>
+        <v>0.119637484693655</v>
       </c>
       <c r="E12">
-        <v>0.7576721619462177</v>
+        <v>0.750228270315489</v>
       </c>
       <c r="F12">
-        <v>0.5210854224255002</v>
+        <v>0.4528312310813831</v>
       </c>
       <c r="G12">
-        <v>0.3674225595286345</v>
+        <v>0.3853925256874078</v>
       </c>
       <c r="H12">
-        <v>0.0760990311191847</v>
+        <v>0.0747639558176445</v>
       </c>
       <c r="I12">
-        <v>0.03449917636331001</v>
+        <v>0.02911218118900116</v>
       </c>
       <c r="J12">
-        <v>0.2585579478161861</v>
+        <v>0.1931234247929368</v>
       </c>
       <c r="K12">
-        <v>0.3832655306917374</v>
+        <v>0.3060473597300941</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1433865459466226</v>
       </c>
       <c r="M12">
-        <v>4.78905588584189</v>
+        <v>0.1163541752490822</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.574837902486593</v>
       </c>
       <c r="P12">
-        <v>1.266975498295466</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.271346874471448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.373238285209965</v>
+      </c>
+      <c r="S12">
+        <v>1.069706435450485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.116751725219018</v>
+        <v>0.07025272915701919</v>
       </c>
       <c r="D13">
-        <v>0.1125973947619769</v>
+        <v>0.1260069749318546</v>
       </c>
       <c r="E13">
-        <v>0.3844710641991043</v>
+        <v>0.3787160412039086</v>
       </c>
       <c r="F13">
-        <v>0.4778532218805793</v>
+        <v>0.4161644540590004</v>
       </c>
       <c r="G13">
-        <v>0.3260233749210784</v>
+        <v>0.341346629617334</v>
       </c>
       <c r="H13">
-        <v>0.1292728201197519</v>
+        <v>0.128078879997318</v>
       </c>
       <c r="I13">
-        <v>0.03329213990958824</v>
+        <v>0.02817010340983117</v>
       </c>
       <c r="J13">
-        <v>0.2381082913125425</v>
+        <v>0.1844597270988757</v>
       </c>
       <c r="K13">
-        <v>0.3514025522022806</v>
+        <v>0.2820356417433558</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1356071864703701</v>
       </c>
       <c r="M13">
-        <v>4.650308241125174</v>
+        <v>0.1055938021800955</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.448958505430312</v>
       </c>
       <c r="P13">
-        <v>1.319109356407381</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.140723905388626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.423226441027566</v>
+      </c>
+      <c r="S13">
+        <v>0.9625561262448628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1178021667639655</v>
+        <v>0.07248037241972582</v>
       </c>
       <c r="D14">
-        <v>0.1159410805863246</v>
+        <v>0.1285751397066264</v>
       </c>
       <c r="E14">
-        <v>0.1958426265154145</v>
+        <v>0.1912068920209435</v>
       </c>
       <c r="F14">
-        <v>0.4433708136207244</v>
+        <v>0.3889389366925329</v>
       </c>
       <c r="G14">
-        <v>0.2948468766041543</v>
+        <v>0.3005141473866502</v>
       </c>
       <c r="H14">
-        <v>0.1769609880552423</v>
+        <v>0.1758829210061492</v>
       </c>
       <c r="I14">
-        <v>0.03193268068771982</v>
+        <v>0.02715619993872931</v>
       </c>
       <c r="J14">
-        <v>0.2232276684847108</v>
+        <v>0.1854675565804556</v>
       </c>
       <c r="K14">
-        <v>0.3264237353901933</v>
+        <v>0.2647352849722751</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1309541738593154</v>
       </c>
       <c r="M14">
-        <v>4.491788198525683</v>
+        <v>0.09652809929884398</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.307916315032912</v>
       </c>
       <c r="P14">
-        <v>1.347827038371221</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.043411913067672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.445681522100912</v>
+      </c>
+      <c r="S14">
+        <v>0.8892249898762259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1168285604237269</v>
+        <v>0.0721913046289373</v>
       </c>
       <c r="D15">
-        <v>0.1161327936065248</v>
+        <v>0.128310668096006</v>
       </c>
       <c r="E15">
-        <v>0.1589374009900943</v>
+        <v>0.1546006019980872</v>
       </c>
       <c r="F15">
-        <v>0.4326079359066526</v>
+        <v>0.3811338049043513</v>
       </c>
       <c r="G15">
-        <v>0.2857129073042515</v>
+        <v>0.2859220118605634</v>
       </c>
       <c r="H15">
-        <v>0.1889211144246588</v>
+        <v>0.1878875243061344</v>
       </c>
       <c r="I15">
-        <v>0.03137781639549075</v>
+        <v>0.02678348355083671</v>
       </c>
       <c r="J15">
-        <v>0.2191395918254671</v>
+        <v>0.188681176979955</v>
       </c>
       <c r="K15">
-        <v>0.3186208578705703</v>
+        <v>0.2598351900377054</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1300280075223625</v>
       </c>
       <c r="M15">
-        <v>4.423583336298918</v>
+        <v>0.09341149434117568</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.24771611411802</v>
       </c>
       <c r="P15">
-        <v>1.351031708811306</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.01545560676476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.445313841344856</v>
+      </c>
+      <c r="S15">
+        <v>0.8705248753701369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1092826131835949</v>
+        <v>0.06720657586546253</v>
       </c>
       <c r="D16">
-        <v>0.1091341389253415</v>
+        <v>0.1190562460415663</v>
       </c>
       <c r="E16">
-        <v>0.1559375932330411</v>
+        <v>0.1520544871368337</v>
       </c>
       <c r="F16">
-        <v>0.4138599592544026</v>
+        <v>0.3725485992563051</v>
       </c>
       <c r="G16">
-        <v>0.2740331344688514</v>
+        <v>0.2488465691686628</v>
       </c>
       <c r="H16">
-        <v>0.1741708038485825</v>
+        <v>0.1733093040076028</v>
       </c>
       <c r="I16">
-        <v>0.02855417049178399</v>
+        <v>0.02467763865854522</v>
       </c>
       <c r="J16">
-        <v>0.2164761487530029</v>
+        <v>0.2171229153242038</v>
       </c>
       <c r="K16">
-        <v>0.307114083593568</v>
+        <v>0.2569481589746978</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1334203069216322</v>
       </c>
       <c r="M16">
-        <v>4.153564298895162</v>
+        <v>0.08618957905971314</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.009706051428338</v>
       </c>
       <c r="P16">
-        <v>1.307228284767163</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.984942703694017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.384214788124652</v>
+      </c>
+      <c r="S16">
+        <v>0.8692447915985753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1028914973556425</v>
+        <v>0.06230625359963682</v>
       </c>
       <c r="D17">
-        <v>0.1020172609968455</v>
+        <v>0.1108881176594423</v>
       </c>
       <c r="E17">
-        <v>0.240271913764758</v>
+        <v>0.236237167243381</v>
       </c>
       <c r="F17">
-        <v>0.4176755162486643</v>
+        <v>0.3796358153005031</v>
       </c>
       <c r="G17">
-        <v>0.2814099878494929</v>
+        <v>0.244786559997344</v>
       </c>
       <c r="H17">
-        <v>0.1356537493101513</v>
+        <v>0.1348608396787654</v>
       </c>
       <c r="I17">
-        <v>0.02712514941600386</v>
+        <v>0.0236032421132446</v>
       </c>
       <c r="J17">
-        <v>0.2222869099354838</v>
+        <v>0.2367363868961547</v>
       </c>
       <c r="K17">
-        <v>0.3113916112545354</v>
+        <v>0.2633797750264293</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1385300268181489</v>
       </c>
       <c r="M17">
-        <v>4.030285828908347</v>
+        <v>0.08510903989293794</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.898975569838001</v>
       </c>
       <c r="P17">
-        <v>1.258909447026682</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.012645327737246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.327946526180099</v>
+      </c>
+      <c r="S17">
+        <v>0.9051224182262843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09805985221451863</v>
+        <v>0.05777472321673116</v>
       </c>
       <c r="D18">
-        <v>0.09400271937237648</v>
+        <v>0.1024242070577515</v>
       </c>
       <c r="E18">
-        <v>0.4725763203411617</v>
+        <v>0.4677996814070013</v>
       </c>
       <c r="F18">
-        <v>0.4423973354213402</v>
+        <v>0.4034319931325854</v>
       </c>
       <c r="G18">
-        <v>0.3074480056075828</v>
+        <v>0.2633475232659706</v>
       </c>
       <c r="H18">
-        <v>0.08352348936118403</v>
+        <v>0.08271585161053707</v>
       </c>
       <c r="I18">
-        <v>0.02655345347226223</v>
+        <v>0.02307980338741888</v>
       </c>
       <c r="J18">
-        <v>0.2366278365708467</v>
+        <v>0.2560274933708513</v>
       </c>
       <c r="K18">
-        <v>0.3311854936070375</v>
+        <v>0.280796891436637</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1465910766102567</v>
       </c>
       <c r="M18">
-        <v>4.021344066557845</v>
+        <v>0.08989327088906762</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.891414465627918</v>
       </c>
       <c r="P18">
-        <v>1.20099975106092</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.09782790176385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.26681822889293</v>
+      </c>
+      <c r="S18">
+        <v>0.985183500528791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09270318817931411</v>
+        <v>0.05252470720685665</v>
       </c>
       <c r="D19">
-        <v>0.08642809998572432</v>
+        <v>0.09477553815417394</v>
       </c>
       <c r="E19">
-        <v>0.9046126370526366</v>
+        <v>0.8984923144737706</v>
       </c>
       <c r="F19">
-        <v>0.480835593688937</v>
+        <v>0.4381989701948044</v>
       </c>
       <c r="G19">
-        <v>0.3459189271790137</v>
+        <v>0.2958754080156041</v>
       </c>
       <c r="H19">
-        <v>0.04080794392949372</v>
+        <v>0.0398992651839265</v>
       </c>
       <c r="I19">
-        <v>0.02719353115275336</v>
+        <v>0.0236323031948551</v>
       </c>
       <c r="J19">
-        <v>0.2562185677689115</v>
+        <v>0.275348251070632</v>
       </c>
       <c r="K19">
-        <v>0.3598897695944174</v>
+        <v>0.3041852896207971</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.155823355370007</v>
       </c>
       <c r="M19">
-        <v>4.099897682473113</v>
+        <v>0.09843183490847096</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.964017089101674</v>
       </c>
       <c r="P19">
-        <v>1.14365729723562</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.220416252718337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.209235088793761</v>
+      </c>
+      <c r="S19">
+        <v>1.093903248606125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09030327512057568</v>
+        <v>0.04838682812646056</v>
       </c>
       <c r="D20">
-        <v>0.07951335635448942</v>
+        <v>0.08868185252957517</v>
       </c>
       <c r="E20">
-        <v>1.876146066701523</v>
+        <v>1.866634052003533</v>
       </c>
       <c r="F20">
-        <v>0.5605669453522211</v>
+        <v>0.5061553272094699</v>
       </c>
       <c r="G20">
-        <v>0.4218849567808576</v>
+        <v>0.3708283121671485</v>
       </c>
       <c r="H20">
-        <v>0.02286563070979453</v>
+        <v>0.02158469312394118</v>
       </c>
       <c r="I20">
-        <v>0.03062693196991884</v>
+        <v>0.02634607189114213</v>
       </c>
       <c r="J20">
-        <v>0.29177880250991</v>
+        <v>0.2941293264223361</v>
       </c>
       <c r="K20">
-        <v>0.4178925030998428</v>
+        <v>0.3478691645818373</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1689161215485733</v>
       </c>
       <c r="M20">
-        <v>4.43337153236746</v>
+        <v>0.1196177401839797</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.271168006649589</v>
       </c>
       <c r="P20">
-        <v>1.083043995677514</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.456086267998785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.155640792076369</v>
+      </c>
+      <c r="S20">
+        <v>1.289123475125677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1006252561739416</v>
+        <v>0.05423779215661995</v>
       </c>
       <c r="D21">
-        <v>0.08781379506889664</v>
+        <v>0.100933061378548</v>
       </c>
       <c r="E21">
-        <v>2.199829212999632</v>
+        <v>2.18710926342591</v>
       </c>
       <c r="F21">
-        <v>0.6210028114786112</v>
+        <v>0.5405917080989653</v>
       </c>
       <c r="G21">
-        <v>0.469257614627594</v>
+        <v>0.4823821193351563</v>
       </c>
       <c r="H21">
-        <v>0.02934562434063581</v>
+        <v>0.02755244818233793</v>
       </c>
       <c r="I21">
-        <v>0.0368227070583913</v>
+        <v>0.03101042664093967</v>
       </c>
       <c r="J21">
-        <v>0.3093178282236835</v>
+        <v>0.2261629257738065</v>
       </c>
       <c r="K21">
-        <v>0.4580002477238239</v>
+        <v>0.3648273600389942</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1650023573386292</v>
       </c>
       <c r="M21">
-        <v>4.99542702509973</v>
+        <v>0.1394817202666481</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.76278419814156</v>
       </c>
       <c r="P21">
-        <v>1.127117011982719</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.593568712307047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.230753543290774</v>
+      </c>
+      <c r="S21">
+        <v>1.345104953546752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1089784871243467</v>
+        <v>0.05931836259779999</v>
       </c>
       <c r="D22">
-        <v>0.09349737219061893</v>
+        <v>0.1094240394793218</v>
       </c>
       <c r="E22">
-        <v>2.360515859069608</v>
+        <v>2.345727183371707</v>
       </c>
       <c r="F22">
-        <v>0.6595094464356634</v>
+        <v>0.5609493081001204</v>
       </c>
       <c r="G22">
-        <v>0.4990942066277029</v>
+        <v>0.5636931525360893</v>
       </c>
       <c r="H22">
-        <v>0.03352958578349652</v>
+        <v>0.03138403063520201</v>
       </c>
       <c r="I22">
-        <v>0.04081497245620191</v>
+        <v>0.03387176013169935</v>
       </c>
       <c r="J22">
-        <v>0.3203071860461364</v>
+        <v>0.1862410204281417</v>
       </c>
       <c r="K22">
-        <v>0.4842248233084945</v>
+        <v>0.3751412678385151</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1622224044028293</v>
       </c>
       <c r="M22">
-        <v>5.357857754529789</v>
+        <v>0.1525347610337988</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>5.075900917754836</v>
       </c>
       <c r="P22">
-        <v>1.158661303667586</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.680037264656164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.284376623150962</v>
+      </c>
+      <c r="S22">
+        <v>1.374884765621658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.105912472265203</v>
+        <v>0.05729551911363728</v>
       </c>
       <c r="D23">
-        <v>0.09027136843271677</v>
+        <v>0.1043963064713225</v>
       </c>
       <c r="E23">
-        <v>2.274765236422454</v>
+        <v>2.261164218286808</v>
       </c>
       <c r="F23">
-        <v>0.6403141062732658</v>
+        <v>0.5531635231078056</v>
       </c>
       <c r="G23">
-        <v>0.4845588509633671</v>
+        <v>0.5126252495398091</v>
       </c>
       <c r="H23">
-        <v>0.03128225924610151</v>
+        <v>0.02933803141047786</v>
       </c>
       <c r="I23">
-        <v>0.03847486612039308</v>
+        <v>0.03209326001053636</v>
       </c>
       <c r="J23">
-        <v>0.3151322992178933</v>
+        <v>0.2142902559508073</v>
       </c>
       <c r="K23">
-        <v>0.4721689575662751</v>
+        <v>0.3725467535745821</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1646921579413636</v>
       </c>
       <c r="M23">
-        <v>5.16805423815606</v>
+        <v>0.1467579399356538</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.91714689971792</v>
       </c>
       <c r="P23">
-        <v>1.140233946012472</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.638278457858888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.251804834150803</v>
+      </c>
+      <c r="S23">
+        <v>1.368669493801463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0918692992953396</v>
+        <v>0.04926081322706466</v>
       </c>
       <c r="D24">
-        <v>0.07838068988203872</v>
+        <v>0.08749195094967632</v>
       </c>
       <c r="E24">
-        <v>1.951432156033533</v>
+        <v>1.941702063079816</v>
       </c>
       <c r="F24">
-        <v>0.5667196497870606</v>
+        <v>0.5118883552120153</v>
       </c>
       <c r="G24">
-        <v>0.4283547241333139</v>
+        <v>0.3761304147854503</v>
       </c>
       <c r="H24">
-        <v>0.02331316827954932</v>
+        <v>0.02201232927779473</v>
       </c>
       <c r="I24">
-        <v>0.03036314672685148</v>
+        <v>0.02595902099056246</v>
       </c>
       <c r="J24">
-        <v>0.295042280487408</v>
+        <v>0.2977654309766962</v>
       </c>
       <c r="K24">
-        <v>0.4239637247480132</v>
+        <v>0.3531002259403522</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1709816943871481</v>
       </c>
       <c r="M24">
-        <v>4.442799497208114</v>
+        <v>0.1215263502865618</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.280185381286003</v>
       </c>
       <c r="P24">
-        <v>1.074471116449843</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.476636480216371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.146690041233484</v>
+      </c>
+      <c r="S24">
+        <v>1.307912271259937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07642236983343764</v>
+        <v>0.0423883509982943</v>
       </c>
       <c r="D25">
-        <v>0.06556407764654182</v>
+        <v>0.07239745616894311</v>
       </c>
       <c r="E25">
-        <v>1.605247339111202</v>
+        <v>1.598342569653269</v>
       </c>
       <c r="F25">
-        <v>0.4900351722062908</v>
+        <v>0.4493578564486853</v>
       </c>
       <c r="G25">
-        <v>0.3699954714868454</v>
+        <v>0.3212403242852275</v>
       </c>
       <c r="H25">
-        <v>0.0157562525146836</v>
+        <v>0.01492100536850771</v>
       </c>
       <c r="I25">
-        <v>0.02248545434931337</v>
+        <v>0.01969519098370753</v>
       </c>
       <c r="J25">
-        <v>0.2747024228967803</v>
+        <v>0.2915770046102324</v>
       </c>
       <c r="K25">
-        <v>0.3732675614992615</v>
+        <v>0.3191922347371303</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1730642389014676</v>
       </c>
       <c r="M25">
-        <v>3.659077673764614</v>
+        <v>0.09107276259955199</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.537657220807716</v>
       </c>
       <c r="P25">
-        <v>1.006469345928963</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.309841822704925</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.060650300904712</v>
+      </c>
+      <c r="S25">
+        <v>1.184687398630558</v>
       </c>
     </row>
   </sheetData>
